--- a/src/test/resources/TestDriver/TestAsset/Test.xlsx
+++ b/src/test/resources/TestDriver/TestAsset/Test.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestAsset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD4527E-5F2E-481C-ABF8-90E5CAECD4B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08EB624-E574-4469-B86B-CCAEBF1D1EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
-    <sheet name="xxxO_TransactionActivity" sheetId="2" r:id="rId2"/>
+    <sheet name="O_TransactionActivity" sheetId="2" r:id="rId2"/>
+    <sheet name="O_Metric" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">O_TransactionActivity!$A$2:$J$122</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="43">
   <si>
     <t>Steps</t>
   </si>
@@ -99,9 +103,6 @@
     <t>instrumentId</t>
   </si>
   <si>
-    <t>amount</t>
-  </si>
-  <si>
     <t>originalPeriodId</t>
   </si>
   <si>
@@ -111,34 +112,10 @@
     <t>isReplayable</t>
   </si>
   <si>
-    <t>PURCHASE_INTEREST</t>
-  </si>
-  <si>
     <t>MODEL</t>
   </si>
   <si>
-    <t>PURCHASE_UPB</t>
-  </si>
-  <si>
-    <t>SERVICING_INTEREST_ACCRUAL</t>
-  </si>
-  <si>
-    <t>PAYMENT_INTEREST</t>
-  </si>
-  <si>
-    <t>PAYMENT_UPB</t>
-  </si>
-  <si>
-    <t>REMIT</t>
-  </si>
-  <si>
     <t>ETL</t>
-  </si>
-  <si>
-    <t>{"instrumentId": "LOAN1"}</t>
-  </si>
-  <si>
-    <t>LOAN1</t>
   </si>
   <si>
     <t>TestAsset/EventConfigurations.json</t>
@@ -152,16 +129,59 @@
   <si>
     <t>TestAsset/ActivityData/ActivityData_2024.xlsx</t>
   </si>
+  <si>
+    <t>amount ASC</t>
+  </si>
+  <si>
+    <t>DEPRECIATION_EXPENSE</t>
+  </si>
+  <si>
+    <t>BUILDINGS</t>
+  </si>
+  <si>
+    <t>ASSET_BOARDING</t>
+  </si>
+  <si>
+    <t>MACHINERY_&amp;_EQUIPMENT</t>
+  </si>
+  <si>
+    <t>VEHICLES</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>MetricLevelLtd</t>
+  </si>
+  <si>
+    <t>metricName ASC</t>
+  </si>
+  <si>
+    <t>balance.beginningBalance</t>
+  </si>
+  <si>
+    <t>balance.activity</t>
+  </si>
+  <si>
+    <t>balance.endingBalance</t>
+  </si>
+  <si>
+    <t>ASSETCOST</t>
+  </si>
+  <si>
+    <t>ACCUMULATED_DEPRECIATION</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000_);[Red]\(#,##0.0000\)"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -189,6 +209,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -233,7 +259,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
@@ -245,6 +271,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,7 +476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -472,7 +505,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -483,7 +516,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -494,7 +527,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -516,7 +549,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -564,10 +597,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J122"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -582,8 +615,8 @@
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>32</v>
+      <c r="B1" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="G1" s="5"/>
     </row>
@@ -595,57 +628,57 @@
         <v>15</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
-        <v>20220131</v>
+        <v>20241231</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>24</v>
+      <c r="C3" s="8">
+        <v>51000</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="7">
-        <v>20220131</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="8">
-        <v>100</v>
+        <v>30</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H3" s="7">
-        <v>202201</v>
+        <v>202412</v>
       </c>
       <c r="I3" s="7">
-        <v>202201</v>
+        <v>202412</v>
       </c>
       <c r="J3" s="7">
         <v>0</v>
@@ -653,31 +686,31 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
-        <v>20220131</v>
+        <v>20241231</v>
       </c>
       <c r="B4" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>26</v>
+      <c r="C4" s="8">
+        <v>850000</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="7">
-        <v>20220131</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="8">
-        <v>100000</v>
+        <v>32</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H4" s="7">
-        <v>202201</v>
+        <v>202412</v>
       </c>
       <c r="I4" s="7">
-        <v>202201</v>
+        <v>202412</v>
       </c>
       <c r="J4" s="7">
         <v>0</v>
@@ -685,31 +718,31 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
-        <v>20220201</v>
+        <v>20241231</v>
       </c>
       <c r="B5" s="7">
-        <v>1</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>27</v>
+        <v>10</v>
+      </c>
+      <c r="C5" s="8">
+        <v>45000</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="7">
-        <v>20220201</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="8">
-        <v>27.777799999999999</v>
+        <v>30</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H5" s="7">
-        <v>202202</v>
+        <v>202412</v>
       </c>
       <c r="I5" s="7">
-        <v>202202</v>
+        <v>202412</v>
       </c>
       <c r="J5" s="7">
         <v>0</v>
@@ -717,31 +750,31 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
-        <v>20220202</v>
+        <v>20241231</v>
       </c>
       <c r="B6" s="7">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>27</v>
+        <v>10</v>
+      </c>
+      <c r="C6" s="8">
+        <v>500000</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="7">
-        <v>20220202</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="8">
-        <v>27.777799999999999</v>
+        <v>32</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H6" s="7">
-        <v>202202</v>
+        <v>202412</v>
       </c>
       <c r="I6" s="7">
-        <v>202202</v>
+        <v>202412</v>
       </c>
       <c r="J6" s="7">
         <v>0</v>
@@ -749,31 +782,31 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
-        <v>20220203</v>
+        <v>20241231</v>
       </c>
       <c r="B7" s="7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="C7" s="8">
+        <v>37800</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="7">
-        <v>20220203</v>
-      </c>
-      <c r="F7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="8">
-        <v>-155.5556</v>
-      </c>
       <c r="H7" s="7">
-        <v>202202</v>
+        <v>202412</v>
       </c>
       <c r="I7" s="7">
-        <v>202202</v>
+        <v>202412</v>
       </c>
       <c r="J7" s="7">
         <v>0</v>
@@ -781,31 +814,31 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
-        <v>20220203</v>
+        <v>20241231</v>
       </c>
       <c r="B8" s="7">
-        <v>1</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
+      </c>
+      <c r="C8" s="8">
+        <v>420000</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="7">
-        <v>20220203</v>
-      </c>
-      <c r="F8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="8">
-        <v>-54.444400000000002</v>
-      </c>
       <c r="H8" s="7">
-        <v>202202</v>
+        <v>202412</v>
       </c>
       <c r="I8" s="7">
-        <v>202202</v>
+        <v>202412</v>
       </c>
       <c r="J8" s="7">
         <v>0</v>
@@ -813,31 +846,31 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
-        <v>20220203</v>
+        <v>20241231</v>
       </c>
       <c r="B9" s="7">
-        <v>1</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="C9" s="8">
+        <v>36000</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="7">
-        <v>20220203</v>
-      </c>
-      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="8">
-        <v>210</v>
-      </c>
       <c r="H9" s="7">
-        <v>202202</v>
+        <v>202412</v>
       </c>
       <c r="I9" s="7">
-        <v>202202</v>
+        <v>202412</v>
       </c>
       <c r="J9" s="7">
         <v>0</v>
@@ -845,31 +878,31 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
-        <v>20220203</v>
+        <v>20241231</v>
       </c>
       <c r="B10" s="7">
-        <v>1</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="C10" s="8">
+        <v>480000</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="7">
-        <v>20220203</v>
-      </c>
-      <c r="F10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="8">
-        <v>27.762699999999999</v>
-      </c>
       <c r="H10" s="7">
-        <v>202202</v>
+        <v>202412</v>
       </c>
       <c r="I10" s="7">
-        <v>202202</v>
+        <v>202412</v>
       </c>
       <c r="J10" s="7">
         <v>0</v>
@@ -877,31 +910,31 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
-        <v>20220204</v>
+        <v>20241231</v>
       </c>
       <c r="B11" s="7">
-        <v>1</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
+      </c>
+      <c r="C11" s="8">
+        <v>260000</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="7">
-        <v>20220204</v>
-      </c>
-      <c r="F11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="8">
-        <v>27.762699999999999</v>
-      </c>
       <c r="H11" s="7">
-        <v>202202</v>
+        <v>202412</v>
       </c>
       <c r="I11" s="7">
-        <v>202202</v>
+        <v>202412</v>
       </c>
       <c r="J11" s="7">
         <v>0</v>
@@ -909,33 +942,3553 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
-        <v>20220205</v>
+        <v>20241231</v>
       </c>
       <c r="B12" s="7">
+        <v>13</v>
+      </c>
+      <c r="C12" s="8">
+        <v>29250</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="7">
+        <v>202412</v>
+      </c>
+      <c r="I12" s="7">
+        <v>202412</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="B13" s="7">
+        <v>14</v>
+      </c>
+      <c r="C13" s="8">
+        <v>31500</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="7">
+        <v>202412</v>
+      </c>
+      <c r="I13" s="7">
+        <v>202412</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="B14" s="7">
+        <v>14</v>
+      </c>
+      <c r="C14" s="8">
+        <v>350000</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="7">
+        <v>202412</v>
+      </c>
+      <c r="I14" s="7">
+        <v>202412</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="B15" s="7">
+        <v>15</v>
+      </c>
+      <c r="C15" s="8">
+        <v>300000</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="7">
+        <v>202412</v>
+      </c>
+      <c r="I15" s="7">
+        <v>202412</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="B16" s="7">
+        <v>15</v>
+      </c>
+      <c r="C16" s="8">
+        <v>38571.428599999999</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="7">
+        <v>202412</v>
+      </c>
+      <c r="I16" s="7">
+        <v>202412</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="B17" s="7">
+        <v>16</v>
+      </c>
+      <c r="C17" s="8">
+        <v>39000</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="7">
+        <v>202412</v>
+      </c>
+      <c r="I17" s="7">
+        <v>202412</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="B18" s="7">
+        <v>16</v>
+      </c>
+      <c r="C18" s="8">
+        <v>520000</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="7">
+        <v>202412</v>
+      </c>
+      <c r="I18" s="7">
+        <v>202412</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="B19" s="7">
+        <v>17</v>
+      </c>
+      <c r="C19" s="8">
+        <v>24000</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="7">
+        <v>202412</v>
+      </c>
+      <c r="I19" s="7">
+        <v>202412</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="B20" s="7">
+        <v>17</v>
+      </c>
+      <c r="C20" s="8">
+        <v>400000</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="7">
+        <v>202412</v>
+      </c>
+      <c r="I20" s="7">
+        <v>202412</v>
+      </c>
+      <c r="J20" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="B21" s="7">
+        <v>18</v>
+      </c>
+      <c r="C21" s="8">
+        <v>180000</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="7">
+        <v>202412</v>
+      </c>
+      <c r="I21" s="7">
+        <v>202412</v>
+      </c>
+      <c r="J21" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="B22" s="7">
+        <v>18</v>
+      </c>
+      <c r="C22" s="8">
+        <v>27000</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="7">
+        <v>202412</v>
+      </c>
+      <c r="I22" s="7">
+        <v>202412</v>
+      </c>
+      <c r="J22" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="B23" s="7">
+        <v>19</v>
+      </c>
+      <c r="C23" s="8">
+        <v>67500</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="7">
+        <v>202412</v>
+      </c>
+      <c r="I23" s="7">
+        <v>202412</v>
+      </c>
+      <c r="J23" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="B24" s="7">
+        <v>19</v>
+      </c>
+      <c r="C24" s="8">
+        <v>750000</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="7">
+        <v>202412</v>
+      </c>
+      <c r="I24" s="7">
+        <v>202412</v>
+      </c>
+      <c r="J24" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="B25" s="7">
+        <v>2</v>
+      </c>
+      <c r="C25" s="8">
+        <v>59142.857100000001</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="7">
+        <v>202412</v>
+      </c>
+      <c r="I25" s="7">
+        <v>202412</v>
+      </c>
+      <c r="J25" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="B26" s="7">
+        <v>2</v>
+      </c>
+      <c r="C26" s="8">
+        <v>920000</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" s="7">
+        <v>202412</v>
+      </c>
+      <c r="I26" s="7">
+        <v>202412</v>
+      </c>
+      <c r="J26" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="B27" s="7">
+        <v>20</v>
+      </c>
+      <c r="C27" s="8">
+        <v>49500</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="7">
+        <v>202412</v>
+      </c>
+      <c r="I27" s="7">
+        <v>202412</v>
+      </c>
+      <c r="J27" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="B28" s="7">
+        <v>20</v>
+      </c>
+      <c r="C28" s="8">
+        <v>550000</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" s="7">
+        <v>202412</v>
+      </c>
+      <c r="I28" s="7">
+        <v>202412</v>
+      </c>
+      <c r="J28" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="B29" s="7">
+        <v>21</v>
+      </c>
+      <c r="C29" s="8">
+        <v>120000</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" s="7">
+        <v>202412</v>
+      </c>
+      <c r="I29" s="7">
+        <v>202412</v>
+      </c>
+      <c r="J29" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="B30" s="7">
+        <v>21</v>
+      </c>
+      <c r="C30" s="8">
+        <v>21600</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30" s="7">
+        <v>202412</v>
+      </c>
+      <c r="I30" s="7">
+        <v>202412</v>
+      </c>
+      <c r="J30" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="B31" s="7">
+        <v>22</v>
+      </c>
+      <c r="C31" s="8">
+        <v>150000</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" s="7">
+        <v>202412</v>
+      </c>
+      <c r="I31" s="7">
+        <v>202412</v>
+      </c>
+      <c r="J31" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="B32" s="7">
+        <v>22</v>
+      </c>
+      <c r="C32" s="8">
+        <v>22500</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H32" s="7">
+        <v>202412</v>
+      </c>
+      <c r="I32" s="7">
+        <v>202412</v>
+      </c>
+      <c r="J32" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="B33" s="7">
+        <v>23</v>
+      </c>
+      <c r="C33" s="8">
+        <v>350000</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" s="7">
+        <v>202412</v>
+      </c>
+      <c r="I33" s="7">
+        <v>202412</v>
+      </c>
+      <c r="J33" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="B34" s="7">
+        <v>23</v>
+      </c>
+      <c r="C34" s="8">
+        <v>39375</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H34" s="7">
+        <v>202412</v>
+      </c>
+      <c r="I34" s="7">
+        <v>202412</v>
+      </c>
+      <c r="J34" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="B35" s="7">
+        <v>24</v>
+      </c>
+      <c r="C35" s="8">
+        <v>220000</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35" s="7">
+        <v>202412</v>
+      </c>
+      <c r="I35" s="7">
+        <v>202412</v>
+      </c>
+      <c r="J35" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="B36" s="7">
+        <v>24</v>
+      </c>
+      <c r="C36" s="8">
+        <v>39600</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H36" s="7">
+        <v>202412</v>
+      </c>
+      <c r="I36" s="7">
+        <v>202412</v>
+      </c>
+      <c r="J36" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="B37" s="7">
+        <v>25</v>
+      </c>
+      <c r="C37" s="8">
+        <v>140000</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H37" s="7">
+        <v>202412</v>
+      </c>
+      <c r="I37" s="7">
+        <v>202412</v>
+      </c>
+      <c r="J37" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="B38" s="7">
+        <v>25</v>
+      </c>
+      <c r="C38" s="8">
+        <v>25200</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H38" s="7">
+        <v>202412</v>
+      </c>
+      <c r="I38" s="7">
+        <v>202412</v>
+      </c>
+      <c r="J38" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="B39" s="7">
+        <v>26</v>
+      </c>
+      <c r="C39" s="8">
+        <v>180000</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H39" s="7">
+        <v>202412</v>
+      </c>
+      <c r="I39" s="7">
+        <v>202412</v>
+      </c>
+      <c r="J39" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="B40" s="7">
+        <v>26</v>
+      </c>
+      <c r="C40" s="8">
+        <v>27000</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H40" s="7">
+        <v>202412</v>
+      </c>
+      <c r="I40" s="7">
+        <v>202412</v>
+      </c>
+      <c r="J40" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="B41" s="7">
+        <v>27</v>
+      </c>
+      <c r="C41" s="8">
+        <v>37800</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H41" s="7">
+        <v>202412</v>
+      </c>
+      <c r="I41" s="7">
+        <v>202412</v>
+      </c>
+      <c r="J41" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="B42" s="7">
+        <v>27</v>
+      </c>
+      <c r="C42" s="8">
+        <v>420000</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H42" s="7">
+        <v>202412</v>
+      </c>
+      <c r="I42" s="7">
+        <v>202412</v>
+      </c>
+      <c r="J42" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="B43" s="7">
+        <v>28</v>
+      </c>
+      <c r="C43" s="8">
+        <v>320000</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H43" s="7">
+        <v>202412</v>
+      </c>
+      <c r="I43" s="7">
+        <v>202412</v>
+      </c>
+      <c r="J43" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="B44" s="7">
+        <v>28</v>
+      </c>
+      <c r="C44" s="8">
+        <v>41142.857100000001</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H44" s="7">
+        <v>202412</v>
+      </c>
+      <c r="I44" s="7">
+        <v>202412</v>
+      </c>
+      <c r="J44" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="B45" s="7">
+        <v>29</v>
+      </c>
+      <c r="C45" s="8">
+        <v>41250</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H45" s="7">
+        <v>202412</v>
+      </c>
+      <c r="I45" s="7">
+        <v>202412</v>
+      </c>
+      <c r="J45" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="B46" s="7">
+        <v>29</v>
+      </c>
+      <c r="C46" s="8">
+        <v>550000</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H46" s="7">
+        <v>202412</v>
+      </c>
+      <c r="I46" s="7">
+        <v>202412</v>
+      </c>
+      <c r="J46" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="B47" s="7">
+        <v>3</v>
+      </c>
+      <c r="C47" s="8">
+        <v>52500</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" s="7">
+        <v>202412</v>
+      </c>
+      <c r="I47" s="7">
+        <v>202412</v>
+      </c>
+      <c r="J47" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="B48" s="7">
+        <v>3</v>
+      </c>
+      <c r="C48" s="8">
+        <v>700000</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H48" s="7">
+        <v>202412</v>
+      </c>
+      <c r="I48" s="7">
+        <v>202412</v>
+      </c>
+      <c r="J48" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="B49" s="7">
+        <v>30</v>
+      </c>
+      <c r="C49" s="8">
+        <v>200000</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H49" s="7">
+        <v>202412</v>
+      </c>
+      <c r="I49" s="7">
+        <v>202412</v>
+      </c>
+      <c r="J49" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="B50" s="7">
+        <v>30</v>
+      </c>
+      <c r="C50" s="8">
+        <v>30000</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F50" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H50" s="7">
+        <v>202412</v>
+      </c>
+      <c r="I50" s="7">
+        <v>202412</v>
+      </c>
+      <c r="J50" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="B51" s="7">
+        <v>4</v>
+      </c>
+      <c r="C51" s="8">
+        <v>48750</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" s="7">
+        <v>202412</v>
+      </c>
+      <c r="I51" s="7">
+        <v>202412</v>
+      </c>
+      <c r="J51" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="B52" s="7">
+        <v>4</v>
+      </c>
+      <c r="C52" s="8">
+        <v>650000</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H52" s="7">
+        <v>202412</v>
+      </c>
+      <c r="I52" s="7">
+        <v>202412</v>
+      </c>
+      <c r="J52" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="B53" s="7">
+        <v>5</v>
+      </c>
+      <c r="C53" s="8">
+        <v>46800</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F53" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H53" s="7">
+        <v>202412</v>
+      </c>
+      <c r="I53" s="7">
+        <v>202412</v>
+      </c>
+      <c r="J53" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="B54" s="7">
+        <v>5</v>
+      </c>
+      <c r="C54" s="8">
+        <v>780000</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F54" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H54" s="7">
+        <v>202412</v>
+      </c>
+      <c r="I54" s="7">
+        <v>202412</v>
+      </c>
+      <c r="J54" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="B55" s="7">
+        <v>6</v>
+      </c>
+      <c r="C55" s="8">
+        <v>81000</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F55" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="7">
+        <v>202412</v>
+      </c>
+      <c r="I55" s="7">
+        <v>202412</v>
+      </c>
+      <c r="J55" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="B56" s="7">
+        <v>6</v>
+      </c>
+      <c r="C56" s="8">
+        <v>900000</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F56" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H56" s="7">
+        <v>202412</v>
+      </c>
+      <c r="I56" s="7">
+        <v>202412</v>
+      </c>
+      <c r="J56" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="B57" s="7">
+        <v>7</v>
+      </c>
+      <c r="C57" s="8">
+        <v>54000</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F57" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H57" s="7">
+        <v>202412</v>
+      </c>
+      <c r="I57" s="7">
+        <v>202412</v>
+      </c>
+      <c r="J57" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="B58" s="7">
+        <v>7</v>
+      </c>
+      <c r="C58" s="8">
+        <v>600000</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F58" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H58" s="7">
+        <v>202412</v>
+      </c>
+      <c r="I58" s="7">
+        <v>202412</v>
+      </c>
+      <c r="J58" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="B59" s="7">
+        <v>8</v>
+      </c>
+      <c r="C59" s="8">
+        <v>106875</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F59" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H59" s="7">
+        <v>202412</v>
+      </c>
+      <c r="I59" s="7">
+        <v>202412</v>
+      </c>
+      <c r="J59" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="B60" s="7">
+        <v>8</v>
+      </c>
+      <c r="C60" s="8">
+        <v>950000</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F60" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H60" s="7">
+        <v>202412</v>
+      </c>
+      <c r="I60" s="7">
+        <v>202412</v>
+      </c>
+      <c r="J60" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="B61" s="7">
+        <v>9</v>
+      </c>
+      <c r="C61" s="8">
+        <v>54000</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F61" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H61" s="7">
+        <v>202412</v>
+      </c>
+      <c r="I61" s="7">
+        <v>202412</v>
+      </c>
+      <c r="J61" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="B62" s="7">
+        <v>9</v>
+      </c>
+      <c r="C62" s="8">
+        <v>720000</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F62" s="7">
+        <v>20241231</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H62" s="7">
+        <v>202412</v>
+      </c>
+      <c r="I62" s="7">
+        <v>202412</v>
+      </c>
+      <c r="J62" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="7">
+        <v>20251231</v>
+      </c>
+      <c r="B63" s="7">
         <v>1</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C63" s="8">
+        <v>51000</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F63" s="7">
+        <v>20251231</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H63" s="7">
+        <v>202512</v>
+      </c>
+      <c r="I63" s="7">
+        <v>202512</v>
+      </c>
+      <c r="J63" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="7">
+        <v>20251231</v>
+      </c>
+      <c r="B64" s="7">
+        <v>10</v>
+      </c>
+      <c r="C64" s="8">
+        <v>45000</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F64" s="7">
+        <v>20251231</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H64" s="7">
+        <v>202512</v>
+      </c>
+      <c r="I64" s="7">
+        <v>202512</v>
+      </c>
+      <c r="J64" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="7">
+        <v>20251231</v>
+      </c>
+      <c r="B65" s="7">
+        <v>11</v>
+      </c>
+      <c r="C65" s="8">
+        <v>37800</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F65" s="7">
+        <v>20251231</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H65" s="7">
+        <v>202512</v>
+      </c>
+      <c r="I65" s="7">
+        <v>202512</v>
+      </c>
+      <c r="J65" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="7">
+        <v>20251231</v>
+      </c>
+      <c r="B66" s="7">
+        <v>12</v>
+      </c>
+      <c r="C66" s="8">
+        <v>36000</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F66" s="7">
+        <v>20251231</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H66" s="7">
+        <v>202512</v>
+      </c>
+      <c r="I66" s="7">
+        <v>202512</v>
+      </c>
+      <c r="J66" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="7">
+        <v>20251231</v>
+      </c>
+      <c r="B67" s="7">
+        <v>13</v>
+      </c>
+      <c r="C67" s="8">
+        <v>29250</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F67" s="7">
+        <v>20251231</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H67" s="7">
+        <v>202512</v>
+      </c>
+      <c r="I67" s="7">
+        <v>202512</v>
+      </c>
+      <c r="J67" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="7">
+        <v>20251231</v>
+      </c>
+      <c r="B68" s="7">
+        <v>14</v>
+      </c>
+      <c r="C68" s="8">
+        <v>31500</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F68" s="7">
+        <v>20251231</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H68" s="7">
+        <v>202512</v>
+      </c>
+      <c r="I68" s="7">
+        <v>202512</v>
+      </c>
+      <c r="J68" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="7">
+        <v>20251231</v>
+      </c>
+      <c r="B69" s="7">
+        <v>15</v>
+      </c>
+      <c r="C69" s="8">
+        <v>38571.428599999999</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F69" s="7">
+        <v>20251231</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H69" s="7">
+        <v>202512</v>
+      </c>
+      <c r="I69" s="7">
+        <v>202512</v>
+      </c>
+      <c r="J69" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="7">
+        <v>20251231</v>
+      </c>
+      <c r="B70" s="7">
+        <v>16</v>
+      </c>
+      <c r="C70" s="8">
+        <v>39000</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F70" s="7">
+        <v>20251231</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H70" s="7">
+        <v>202512</v>
+      </c>
+      <c r="I70" s="7">
+        <v>202512</v>
+      </c>
+      <c r="J70" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="7">
+        <v>20251231</v>
+      </c>
+      <c r="B71" s="7">
+        <v>17</v>
+      </c>
+      <c r="C71" s="8">
+        <v>24000</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F71" s="7">
+        <v>20251231</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H71" s="7">
+        <v>202512</v>
+      </c>
+      <c r="I71" s="7">
+        <v>202512</v>
+      </c>
+      <c r="J71" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="7">
+        <v>20251231</v>
+      </c>
+      <c r="B72" s="7">
+        <v>18</v>
+      </c>
+      <c r="C72" s="8">
+        <v>27000</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F72" s="7">
+        <v>20251231</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H72" s="7">
+        <v>202512</v>
+      </c>
+      <c r="I72" s="7">
+        <v>202512</v>
+      </c>
+      <c r="J72" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="7">
+        <v>20251231</v>
+      </c>
+      <c r="B73" s="7">
+        <v>19</v>
+      </c>
+      <c r="C73" s="8">
+        <v>67500</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F73" s="7">
+        <v>20251231</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H73" s="7">
+        <v>202512</v>
+      </c>
+      <c r="I73" s="7">
+        <v>202512</v>
+      </c>
+      <c r="J73" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="7">
+        <v>20251231</v>
+      </c>
+      <c r="B74" s="7">
+        <v>2</v>
+      </c>
+      <c r="C74" s="8">
+        <v>59142.857100000001</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F74" s="7">
+        <v>20251231</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H74" s="7">
+        <v>202512</v>
+      </c>
+      <c r="I74" s="7">
+        <v>202512</v>
+      </c>
+      <c r="J74" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="7">
+        <v>20251231</v>
+      </c>
+      <c r="B75" s="7">
+        <v>20</v>
+      </c>
+      <c r="C75" s="8">
+        <v>49500</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F75" s="7">
+        <v>20251231</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H75" s="7">
+        <v>202512</v>
+      </c>
+      <c r="I75" s="7">
+        <v>202512</v>
+      </c>
+      <c r="J75" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="7">
+        <v>20251231</v>
+      </c>
+      <c r="B76" s="7">
+        <v>21</v>
+      </c>
+      <c r="C76" s="8">
+        <v>21600</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F76" s="7">
+        <v>20251231</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H76" s="7">
+        <v>202512</v>
+      </c>
+      <c r="I76" s="7">
+        <v>202512</v>
+      </c>
+      <c r="J76" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="7">
+        <v>20251231</v>
+      </c>
+      <c r="B77" s="7">
+        <v>22</v>
+      </c>
+      <c r="C77" s="8">
+        <v>22500</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F77" s="7">
+        <v>20251231</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H77" s="7">
+        <v>202512</v>
+      </c>
+      <c r="I77" s="7">
+        <v>202512</v>
+      </c>
+      <c r="J77" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="7">
+        <v>20251231</v>
+      </c>
+      <c r="B78" s="7">
+        <v>23</v>
+      </c>
+      <c r="C78" s="8">
+        <v>39375</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F78" s="7">
+        <v>20251231</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H78" s="7">
+        <v>202512</v>
+      </c>
+      <c r="I78" s="7">
+        <v>202512</v>
+      </c>
+      <c r="J78" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="7">
+        <v>20251231</v>
+      </c>
+      <c r="B79" s="7">
+        <v>24</v>
+      </c>
+      <c r="C79" s="8">
+        <v>39600</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F79" s="7">
+        <v>20251231</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H79" s="7">
+        <v>202512</v>
+      </c>
+      <c r="I79" s="7">
+        <v>202512</v>
+      </c>
+      <c r="J79" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="7">
+        <v>20251231</v>
+      </c>
+      <c r="B80" s="7">
+        <v>25</v>
+      </c>
+      <c r="C80" s="8">
+        <v>25200</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F80" s="7">
+        <v>20251231</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H80" s="7">
+        <v>202512</v>
+      </c>
+      <c r="I80" s="7">
+        <v>202512</v>
+      </c>
+      <c r="J80" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="7">
+        <v>20251231</v>
+      </c>
+      <c r="B81" s="7">
+        <v>26</v>
+      </c>
+      <c r="C81" s="8">
+        <v>27000</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F81" s="7">
+        <v>20251231</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H81" s="7">
+        <v>202512</v>
+      </c>
+      <c r="I81" s="7">
+        <v>202512</v>
+      </c>
+      <c r="J81" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="7">
+        <v>20251231</v>
+      </c>
+      <c r="B82" s="7">
         <v>27</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="C82" s="8">
+        <v>37800</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F82" s="7">
+        <v>20251231</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H82" s="7">
+        <v>202512</v>
+      </c>
+      <c r="I82" s="7">
+        <v>202512</v>
+      </c>
+      <c r="J82" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="7">
+        <v>20251231</v>
+      </c>
+      <c r="B83" s="7">
+        <v>28</v>
+      </c>
+      <c r="C83" s="8">
+        <v>41142.857100000001</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F83" s="7">
+        <v>20251231</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H83" s="7">
+        <v>202512</v>
+      </c>
+      <c r="I83" s="7">
+        <v>202512</v>
+      </c>
+      <c r="J83" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="7">
+        <v>20251231</v>
+      </c>
+      <c r="B84" s="7">
+        <v>29</v>
+      </c>
+      <c r="C84" s="8">
+        <v>41250</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F84" s="7">
+        <v>20251231</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H84" s="7">
+        <v>202512</v>
+      </c>
+      <c r="I84" s="7">
+        <v>202512</v>
+      </c>
+      <c r="J84" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="7">
+        <v>20251231</v>
+      </c>
+      <c r="B85" s="7">
+        <v>3</v>
+      </c>
+      <c r="C85" s="8">
+        <v>52500</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F85" s="7">
+        <v>20251231</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H85" s="7">
+        <v>202512</v>
+      </c>
+      <c r="I85" s="7">
+        <v>202512</v>
+      </c>
+      <c r="J85" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="7">
+        <v>20251231</v>
+      </c>
+      <c r="B86" s="7">
+        <v>30</v>
+      </c>
+      <c r="C86" s="8">
+        <v>30000</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F86" s="7">
+        <v>20251231</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H86" s="7">
+        <v>202512</v>
+      </c>
+      <c r="I86" s="7">
+        <v>202512</v>
+      </c>
+      <c r="J86" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="7">
+        <v>20251231</v>
+      </c>
+      <c r="B87" s="7">
+        <v>4</v>
+      </c>
+      <c r="C87" s="8">
+        <v>48750</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F87" s="7">
+        <v>20251231</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H87" s="7">
+        <v>202512</v>
+      </c>
+      <c r="I87" s="7">
+        <v>202512</v>
+      </c>
+      <c r="J87" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="7">
+        <v>20251231</v>
+      </c>
+      <c r="B88" s="7">
+        <v>5</v>
+      </c>
+      <c r="C88" s="8">
+        <v>46800</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F88" s="7">
+        <v>20251231</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H88" s="7">
+        <v>202512</v>
+      </c>
+      <c r="I88" s="7">
+        <v>202512</v>
+      </c>
+      <c r="J88" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="7">
+        <v>20251231</v>
+      </c>
+      <c r="B89" s="7">
+        <v>6</v>
+      </c>
+      <c r="C89" s="8">
+        <v>81000</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F89" s="7">
+        <v>20251231</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H89" s="7">
+        <v>202512</v>
+      </c>
+      <c r="I89" s="7">
+        <v>202512</v>
+      </c>
+      <c r="J89" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="7">
+        <v>20251231</v>
+      </c>
+      <c r="B90" s="7">
+        <v>7</v>
+      </c>
+      <c r="C90" s="8">
+        <v>54000</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F90" s="7">
+        <v>20251231</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H90" s="7">
+        <v>202512</v>
+      </c>
+      <c r="I90" s="7">
+        <v>202512</v>
+      </c>
+      <c r="J90" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="7">
+        <v>20251231</v>
+      </c>
+      <c r="B91" s="7">
+        <v>8</v>
+      </c>
+      <c r="C91" s="8">
+        <v>106875</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F91" s="7">
+        <v>20251231</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H91" s="7">
+        <v>202512</v>
+      </c>
+      <c r="I91" s="7">
+        <v>202512</v>
+      </c>
+      <c r="J91" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="7">
+        <v>20251231</v>
+      </c>
+      <c r="B92" s="7">
+        <v>9</v>
+      </c>
+      <c r="C92" s="8">
+        <v>54000</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F92" s="7">
+        <v>20251231</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H92" s="7">
+        <v>202512</v>
+      </c>
+      <c r="I92" s="7">
+        <v>202512</v>
+      </c>
+      <c r="J92" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="7">
+        <v>20261231</v>
+      </c>
+      <c r="B93" s="7">
+        <v>1</v>
+      </c>
+      <c r="C93" s="8">
+        <v>51000</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F93" s="7">
+        <v>20261231</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H93" s="7">
+        <v>202612</v>
+      </c>
+      <c r="I93" s="7">
+        <v>202612</v>
+      </c>
+      <c r="J93" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="7">
+        <v>20261231</v>
+      </c>
+      <c r="B94" s="7">
+        <v>10</v>
+      </c>
+      <c r="C94" s="8">
+        <v>45000</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F94" s="7">
+        <v>20261231</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H94" s="7">
+        <v>202612</v>
+      </c>
+      <c r="I94" s="7">
+        <v>202612</v>
+      </c>
+      <c r="J94" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="7">
+        <v>20261231</v>
+      </c>
+      <c r="B95" s="7">
+        <v>11</v>
+      </c>
+      <c r="C95" s="8">
+        <v>37800</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F95" s="7">
+        <v>20261231</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H95" s="7">
+        <v>202612</v>
+      </c>
+      <c r="I95" s="7">
+        <v>202612</v>
+      </c>
+      <c r="J95" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="7">
+        <v>20261231</v>
+      </c>
+      <c r="B96" s="7">
+        <v>12</v>
+      </c>
+      <c r="C96" s="8">
+        <v>36000</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F96" s="7">
+        <v>20261231</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H96" s="7">
+        <v>202612</v>
+      </c>
+      <c r="I96" s="7">
+        <v>202612</v>
+      </c>
+      <c r="J96" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="7">
+        <v>20261231</v>
+      </c>
+      <c r="B97" s="7">
+        <v>13</v>
+      </c>
+      <c r="C97" s="8">
+        <v>29250</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F97" s="7">
+        <v>20261231</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H97" s="7">
+        <v>202612</v>
+      </c>
+      <c r="I97" s="7">
+        <v>202612</v>
+      </c>
+      <c r="J97" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="7">
+        <v>20261231</v>
+      </c>
+      <c r="B98" s="7">
+        <v>14</v>
+      </c>
+      <c r="C98" s="8">
+        <v>31500</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F98" s="7">
+        <v>20261231</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H98" s="7">
+        <v>202612</v>
+      </c>
+      <c r="I98" s="7">
+        <v>202612</v>
+      </c>
+      <c r="J98" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="7">
+        <v>20261231</v>
+      </c>
+      <c r="B99" s="7">
+        <v>15</v>
+      </c>
+      <c r="C99" s="8">
+        <v>38571.428599999999</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F99" s="7">
+        <v>20261231</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H99" s="7">
+        <v>202612</v>
+      </c>
+      <c r="I99" s="7">
+        <v>202612</v>
+      </c>
+      <c r="J99" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="7">
+        <v>20261231</v>
+      </c>
+      <c r="B100" s="7">
+        <v>16</v>
+      </c>
+      <c r="C100" s="8">
+        <v>39000</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F100" s="7">
+        <v>20261231</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H100" s="7">
+        <v>202612</v>
+      </c>
+      <c r="I100" s="7">
+        <v>202612</v>
+      </c>
+      <c r="J100" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="7">
+        <v>20261231</v>
+      </c>
+      <c r="B101" s="7">
+        <v>17</v>
+      </c>
+      <c r="C101" s="8">
+        <v>24000</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F101" s="7">
+        <v>20261231</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H101" s="7">
+        <v>202612</v>
+      </c>
+      <c r="I101" s="7">
+        <v>202612</v>
+      </c>
+      <c r="J101" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="7">
+        <v>20261231</v>
+      </c>
+      <c r="B102" s="7">
+        <v>18</v>
+      </c>
+      <c r="C102" s="8">
+        <v>27000</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F102" s="7">
+        <v>20261231</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H102" s="7">
+        <v>202612</v>
+      </c>
+      <c r="I102" s="7">
+        <v>202612</v>
+      </c>
+      <c r="J102" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="7">
+        <v>20261231</v>
+      </c>
+      <c r="B103" s="7">
+        <v>19</v>
+      </c>
+      <c r="C103" s="8">
+        <v>67500</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F103" s="7">
+        <v>20261231</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H103" s="7">
+        <v>202612</v>
+      </c>
+      <c r="I103" s="7">
+        <v>202612</v>
+      </c>
+      <c r="J103" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="7">
+        <v>20261231</v>
+      </c>
+      <c r="B104" s="7">
+        <v>2</v>
+      </c>
+      <c r="C104" s="8">
+        <v>59142.857100000001</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F104" s="7">
+        <v>20261231</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H104" s="7">
+        <v>202612</v>
+      </c>
+      <c r="I104" s="7">
+        <v>202612</v>
+      </c>
+      <c r="J104" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="7">
+        <v>20261231</v>
+      </c>
+      <c r="B105" s="7">
+        <v>20</v>
+      </c>
+      <c r="C105" s="8">
+        <v>49500</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F105" s="7">
+        <v>20261231</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H105" s="7">
+        <v>202612</v>
+      </c>
+      <c r="I105" s="7">
+        <v>202612</v>
+      </c>
+      <c r="J105" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="7">
+        <v>20261231</v>
+      </c>
+      <c r="B106" s="7">
+        <v>21</v>
+      </c>
+      <c r="C106" s="8">
+        <v>21600</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F106" s="7">
+        <v>20261231</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H106" s="7">
+        <v>202612</v>
+      </c>
+      <c r="I106" s="7">
+        <v>202612</v>
+      </c>
+      <c r="J106" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="7">
+        <v>20261231</v>
+      </c>
+      <c r="B107" s="7">
+        <v>22</v>
+      </c>
+      <c r="C107" s="8">
+        <v>22500</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F107" s="7">
+        <v>20261231</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H107" s="7">
+        <v>202612</v>
+      </c>
+      <c r="I107" s="7">
+        <v>202612</v>
+      </c>
+      <c r="J107" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="7">
+        <v>20261231</v>
+      </c>
+      <c r="B108" s="7">
+        <v>23</v>
+      </c>
+      <c r="C108" s="8">
+        <v>39375</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F108" s="7">
+        <v>20261231</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H108" s="7">
+        <v>202612</v>
+      </c>
+      <c r="I108" s="7">
+        <v>202612</v>
+      </c>
+      <c r="J108" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="7">
+        <v>20261231</v>
+      </c>
+      <c r="B109" s="7">
+        <v>24</v>
+      </c>
+      <c r="C109" s="8">
+        <v>39600</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F109" s="7">
+        <v>20261231</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H109" s="7">
+        <v>202612</v>
+      </c>
+      <c r="I109" s="7">
+        <v>202612</v>
+      </c>
+      <c r="J109" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="7">
+        <v>20261231</v>
+      </c>
+      <c r="B110" s="7">
         <v>25</v>
       </c>
-      <c r="E12" s="7">
-        <v>20220205</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="8">
-        <v>41.643999999999998</v>
-      </c>
-      <c r="H12" s="7">
-        <v>202202</v>
-      </c>
-      <c r="I12" s="7">
-        <v>202202</v>
-      </c>
-      <c r="J12" s="7">
+      <c r="C110" s="8">
+        <v>25200</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F110" s="7">
+        <v>20261231</v>
+      </c>
+      <c r="G110" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H110" s="7">
+        <v>202612</v>
+      </c>
+      <c r="I110" s="7">
+        <v>202612</v>
+      </c>
+      <c r="J110" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="7">
+        <v>20261231</v>
+      </c>
+      <c r="B111" s="7">
+        <v>26</v>
+      </c>
+      <c r="C111" s="8">
+        <v>27000</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F111" s="7">
+        <v>20261231</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H111" s="7">
+        <v>202612</v>
+      </c>
+      <c r="I111" s="7">
+        <v>202612</v>
+      </c>
+      <c r="J111" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="7">
+        <v>20261231</v>
+      </c>
+      <c r="B112" s="7">
+        <v>27</v>
+      </c>
+      <c r="C112" s="8">
+        <v>37800</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F112" s="7">
+        <v>20261231</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H112" s="7">
+        <v>202612</v>
+      </c>
+      <c r="I112" s="7">
+        <v>202612</v>
+      </c>
+      <c r="J112" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="7">
+        <v>20261231</v>
+      </c>
+      <c r="B113" s="7">
+        <v>28</v>
+      </c>
+      <c r="C113" s="8">
+        <v>41142.857100000001</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F113" s="7">
+        <v>20261231</v>
+      </c>
+      <c r="G113" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H113" s="7">
+        <v>202612</v>
+      </c>
+      <c r="I113" s="7">
+        <v>202612</v>
+      </c>
+      <c r="J113" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="7">
+        <v>20261231</v>
+      </c>
+      <c r="B114" s="7">
+        <v>29</v>
+      </c>
+      <c r="C114" s="8">
+        <v>41250</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F114" s="7">
+        <v>20261231</v>
+      </c>
+      <c r="G114" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H114" s="7">
+        <v>202612</v>
+      </c>
+      <c r="I114" s="7">
+        <v>202612</v>
+      </c>
+      <c r="J114" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="7">
+        <v>20261231</v>
+      </c>
+      <c r="B115" s="7">
+        <v>3</v>
+      </c>
+      <c r="C115" s="8">
+        <v>52500</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F115" s="7">
+        <v>20261231</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H115" s="7">
+        <v>202612</v>
+      </c>
+      <c r="I115" s="7">
+        <v>202612</v>
+      </c>
+      <c r="J115" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="7">
+        <v>20261231</v>
+      </c>
+      <c r="B116" s="7">
+        <v>30</v>
+      </c>
+      <c r="C116" s="8">
+        <v>30000</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F116" s="7">
+        <v>20261231</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H116" s="7">
+        <v>202612</v>
+      </c>
+      <c r="I116" s="7">
+        <v>202612</v>
+      </c>
+      <c r="J116" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="7">
+        <v>20261231</v>
+      </c>
+      <c r="B117" s="7">
+        <v>4</v>
+      </c>
+      <c r="C117" s="8">
+        <v>48750</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F117" s="7">
+        <v>20261231</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H117" s="7">
+        <v>202612</v>
+      </c>
+      <c r="I117" s="7">
+        <v>202612</v>
+      </c>
+      <c r="J117" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="7">
+        <v>20261231</v>
+      </c>
+      <c r="B118" s="7">
+        <v>5</v>
+      </c>
+      <c r="C118" s="8">
+        <v>46800</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F118" s="7">
+        <v>20261231</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H118" s="7">
+        <v>202612</v>
+      </c>
+      <c r="I118" s="7">
+        <v>202612</v>
+      </c>
+      <c r="J118" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="7">
+        <v>20261231</v>
+      </c>
+      <c r="B119" s="7">
+        <v>6</v>
+      </c>
+      <c r="C119" s="8">
+        <v>81000</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F119" s="7">
+        <v>20261231</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H119" s="7">
+        <v>202612</v>
+      </c>
+      <c r="I119" s="7">
+        <v>202612</v>
+      </c>
+      <c r="J119" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="7">
+        <v>20261231</v>
+      </c>
+      <c r="B120" s="7">
+        <v>7</v>
+      </c>
+      <c r="C120" s="8">
+        <v>54000</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F120" s="7">
+        <v>20261231</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H120" s="7">
+        <v>202612</v>
+      </c>
+      <c r="I120" s="7">
+        <v>202612</v>
+      </c>
+      <c r="J120" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="7">
+        <v>20261231</v>
+      </c>
+      <c r="B121" s="7">
+        <v>8</v>
+      </c>
+      <c r="C121" s="8">
+        <v>106875</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F121" s="7">
+        <v>20261231</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H121" s="7">
+        <v>202612</v>
+      </c>
+      <c r="I121" s="7">
+        <v>202612</v>
+      </c>
+      <c r="J121" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="7">
+        <v>20261231</v>
+      </c>
+      <c r="B122" s="7">
+        <v>9</v>
+      </c>
+      <c r="C122" s="8">
+        <v>54000</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F122" s="7">
+        <v>20261231</v>
+      </c>
+      <c r="G122" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H122" s="7">
+        <v>202612</v>
+      </c>
+      <c r="I122" s="7">
+        <v>202612</v>
+      </c>
+      <c r="J122" s="7">
         <v>0</v>
       </c>
     </row>
@@ -947,4 +4500,161 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FECB62E0-4531-4514-A111-DB44AEC2692A}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="46.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="5" width="24.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
+        <v>20241231</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0</v>
+      </c>
+      <c r="D3" s="12">
+        <v>1304657.1428</v>
+      </c>
+      <c r="E3" s="12">
+        <v>1304657.1428</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
+        <v>20241231</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12">
+        <v>14430000</v>
+      </c>
+      <c r="E4" s="12">
+        <v>14430000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
+        <v>20251231</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1304657.1428</v>
+      </c>
+      <c r="D5" s="12">
+        <v>1304657.1428</v>
+      </c>
+      <c r="E5" s="12">
+        <v>2609314.2856000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
+        <v>20251231</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="12">
+        <v>14430000</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0</v>
+      </c>
+      <c r="E6" s="12">
+        <v>14430000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
+        <v>20261231</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="12">
+        <v>2609314.2856000001</v>
+      </c>
+      <c r="D7" s="12">
+        <v>1304657.1428</v>
+      </c>
+      <c r="E7" s="12">
+        <v>3913971.4284000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11">
+        <v>20261231</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="12">
+        <v>14430000</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12">
+        <v>14430000</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E8">
+    <sortCondition ref="A3:A8"/>
+    <sortCondition ref="B3:B8"/>
+  </sortState>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/src/test/resources/TestDriver/TestAsset/Test.xlsx
+++ b/src/test/resources/TestDriver/TestAsset/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestAsset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08EB624-E574-4469-B86B-CCAEBF1D1EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30EAE83-5524-485B-919F-3066F5F5D9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -176,10 +176,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000_);[Red]\(#,##0.0000\)"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -276,8 +275,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4506,7 +4505,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FECB62E0-4531-4514-A111-DB44AEC2692A}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4527,19 +4528,19 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4550,13 +4551,13 @@
       <c r="B3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="12">
-        <v>0</v>
-      </c>
-      <c r="D3" s="12">
+      <c r="C3" s="13">
+        <v>0</v>
+      </c>
+      <c r="D3" s="13">
         <v>1304657.1428</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="13">
         <v>1304657.1428</v>
       </c>
     </row>
@@ -4567,13 +4568,13 @@
       <c r="B4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="12">
-        <v>0</v>
-      </c>
-      <c r="D4" s="12">
+      <c r="C4" s="13">
+        <v>0</v>
+      </c>
+      <c r="D4" s="13">
         <v>14430000</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="13">
         <v>14430000</v>
       </c>
     </row>
@@ -4584,13 +4585,13 @@
       <c r="B5" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="13">
         <v>1304657.1428</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="13">
         <v>1304657.1428</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="13">
         <v>2609314.2856000001</v>
       </c>
     </row>
@@ -4601,13 +4602,13 @@
       <c r="B6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="13">
         <v>14430000</v>
       </c>
-      <c r="D6" s="12">
-        <v>0</v>
-      </c>
-      <c r="E6" s="12">
+      <c r="D6" s="13">
+        <v>0</v>
+      </c>
+      <c r="E6" s="13">
         <v>14430000</v>
       </c>
     </row>
@@ -4618,13 +4619,13 @@
       <c r="B7" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="13">
         <v>2609314.2856000001</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="13">
         <v>1304657.1428</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="13">
         <v>3913971.4284000001</v>
       </c>
     </row>
@@ -4635,13 +4636,13 @@
       <c r="B8" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="13">
         <v>14430000</v>
       </c>
-      <c r="D8" s="12">
-        <v>0</v>
-      </c>
-      <c r="E8" s="12">
+      <c r="D8" s="13">
+        <v>0</v>
+      </c>
+      <c r="E8" s="13">
         <v>14430000</v>
       </c>
     </row>

--- a/src/test/resources/TestDriver/TestAsset/Test.xlsx
+++ b/src/test/resources/TestDriver/TestAsset/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestAsset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30EAE83-5524-485B-919F-3066F5F5D9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B18CD5-1E70-46AB-A5A4-27306B5CC3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -258,7 +258,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
@@ -277,6 +277,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4505,9 +4506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FECB62E0-4531-4514-A111-DB44AEC2692A}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4571,10 +4570,10 @@
       <c r="C4" s="13">
         <v>0</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="14">
         <v>14430000</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="14">
         <v>14430000</v>
       </c>
     </row>
@@ -4602,13 +4601,13 @@
       <c r="B6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="14">
         <v>14430000</v>
       </c>
       <c r="D6" s="13">
         <v>0</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="14">
         <v>14430000</v>
       </c>
     </row>
@@ -4636,13 +4635,13 @@
       <c r="B8" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="14">
         <v>14430000</v>
       </c>
       <c r="D8" s="13">
         <v>0</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="14">
         <v>14430000</v>
       </c>
     </row>

--- a/src/test/resources/TestDriver/TestAsset/Test.xlsx
+++ b/src/test/resources/TestDriver/TestAsset/Test.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestAsset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B18CD5-1E70-46AB-A5A4-27306B5CC3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E206508-AE65-4866-8946-D32921BBAC22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
     <sheet name="O_TransactionActivity" sheetId="2" r:id="rId2"/>
-    <sheet name="O_Metric" sheetId="3" r:id="rId3"/>
+    <sheet name="xxO_Metric" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">O_TransactionActivity!$A$2:$J$122</definedName>
@@ -599,9 +599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J122"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -657,10 +655,10 @@
         <v>20241231</v>
       </c>
       <c r="B3" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="8">
-        <v>51000</v>
+        <v>59142.857100000001</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>30</v>
@@ -689,10 +687,10 @@
         <v>20241231</v>
       </c>
       <c r="B4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="8">
-        <v>850000</v>
+        <v>920000</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>32</v>
@@ -721,10 +719,10 @@
         <v>20241231</v>
       </c>
       <c r="B5" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C5" s="8">
-        <v>45000</v>
+        <v>52500</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>30</v>
@@ -753,10 +751,10 @@
         <v>20241231</v>
       </c>
       <c r="B6" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C6" s="8">
-        <v>500000</v>
+        <v>700000</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>32</v>
@@ -785,10 +783,10 @@
         <v>20241231</v>
       </c>
       <c r="B7" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C7" s="8">
-        <v>37800</v>
+        <v>48750</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>30</v>
@@ -800,7 +798,7 @@
         <v>20241231</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H7" s="7">
         <v>202412</v>
@@ -817,10 +815,10 @@
         <v>20241231</v>
       </c>
       <c r="B8" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C8" s="8">
-        <v>420000</v>
+        <v>650000</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>32</v>
@@ -832,7 +830,7 @@
         <v>20241231</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H8" s="7">
         <v>202412</v>
@@ -849,10 +847,10 @@
         <v>20241231</v>
       </c>
       <c r="B9" s="7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C9" s="8">
-        <v>36000</v>
+        <v>46800</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>30</v>
@@ -864,7 +862,7 @@
         <v>20241231</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H9" s="7">
         <v>202412</v>
@@ -881,10 +879,10 @@
         <v>20241231</v>
       </c>
       <c r="B10" s="7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C10" s="8">
-        <v>480000</v>
+        <v>780000</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>32</v>
@@ -896,7 +894,7 @@
         <v>20241231</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H10" s="7">
         <v>202412</v>
@@ -913,22 +911,22 @@
         <v>20241231</v>
       </c>
       <c r="B11" s="7">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C11" s="8">
-        <v>260000</v>
+        <v>81000</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F11" s="7">
         <v>20241231</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H11" s="7">
         <v>202412</v>
@@ -945,22 +943,22 @@
         <v>20241231</v>
       </c>
       <c r="B12" s="7">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C12" s="8">
-        <v>29250</v>
+        <v>900000</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F12" s="7">
         <v>20241231</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H12" s="7">
         <v>202412</v>
@@ -977,10 +975,10 @@
         <v>20241231</v>
       </c>
       <c r="B13" s="7">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C13" s="8">
-        <v>31500</v>
+        <v>54000</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>30</v>
@@ -992,7 +990,7 @@
         <v>20241231</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H13" s="7">
         <v>202412</v>
@@ -1009,10 +1007,10 @@
         <v>20241231</v>
       </c>
       <c r="B14" s="7">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C14" s="8">
-        <v>350000</v>
+        <v>600000</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>32</v>
@@ -1024,7 +1022,7 @@
         <v>20241231</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H14" s="7">
         <v>202412</v>
@@ -1041,22 +1039,22 @@
         <v>20241231</v>
       </c>
       <c r="B15" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C15" s="8">
-        <v>300000</v>
+        <v>106875</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7">
         <v>20241231</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H15" s="7">
         <v>202412</v>
@@ -1073,22 +1071,22 @@
         <v>20241231</v>
       </c>
       <c r="B16" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C16" s="8">
-        <v>38571.428599999999</v>
+        <v>950000</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F16" s="7">
         <v>20241231</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H16" s="7">
         <v>202412</v>
@@ -1105,10 +1103,10 @@
         <v>20241231</v>
       </c>
       <c r="B17" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C17" s="8">
-        <v>39000</v>
+        <v>54000</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>30</v>
@@ -1120,7 +1118,7 @@
         <v>20241231</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H17" s="7">
         <v>202412</v>
@@ -1137,10 +1135,10 @@
         <v>20241231</v>
       </c>
       <c r="B18" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C18" s="8">
-        <v>520000</v>
+        <v>720000</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>32</v>
@@ -1152,7 +1150,7 @@
         <v>20241231</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H18" s="7">
         <v>202412</v>
@@ -1169,10 +1167,10 @@
         <v>20241231</v>
       </c>
       <c r="B19" s="7">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C19" s="8">
-        <v>24000</v>
+        <v>45000</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>30</v>
@@ -1184,7 +1182,7 @@
         <v>20241231</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H19" s="7">
         <v>202412</v>
@@ -1201,10 +1199,10 @@
         <v>20241231</v>
       </c>
       <c r="B20" s="7">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C20" s="8">
-        <v>400000</v>
+        <v>500000</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>32</v>
@@ -1216,7 +1214,7 @@
         <v>20241231</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H20" s="7">
         <v>202412</v>
@@ -1233,16 +1231,16 @@
         <v>20241231</v>
       </c>
       <c r="B21" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C21" s="8">
-        <v>180000</v>
+        <v>37800</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F21" s="7">
         <v>20241231</v>
@@ -1265,16 +1263,16 @@
         <v>20241231</v>
       </c>
       <c r="B22" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C22" s="8">
-        <v>27000</v>
+        <v>420000</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F22" s="7">
         <v>20241231</v>
@@ -1297,10 +1295,10 @@
         <v>20241231</v>
       </c>
       <c r="B23" s="7">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C23" s="8">
-        <v>67500</v>
+        <v>36000</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>30</v>
@@ -1329,10 +1327,10 @@
         <v>20241231</v>
       </c>
       <c r="B24" s="7">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C24" s="8">
-        <v>750000</v>
+        <v>480000</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>32</v>
@@ -1361,10 +1359,10 @@
         <v>20241231</v>
       </c>
       <c r="B25" s="7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C25" s="8">
-        <v>59142.857100000001</v>
+        <v>29250</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>30</v>
@@ -1376,7 +1374,7 @@
         <v>20241231</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H25" s="7">
         <v>202412</v>
@@ -1393,10 +1391,10 @@
         <v>20241231</v>
       </c>
       <c r="B26" s="7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C26" s="8">
-        <v>920000</v>
+        <v>260000</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>32</v>
@@ -1408,7 +1406,7 @@
         <v>20241231</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H26" s="7">
         <v>202412</v>
@@ -1425,10 +1423,10 @@
         <v>20241231</v>
       </c>
       <c r="B27" s="7">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C27" s="8">
-        <v>49500</v>
+        <v>31500</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>30</v>
@@ -1457,10 +1455,10 @@
         <v>20241231</v>
       </c>
       <c r="B28" s="7">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C28" s="8">
-        <v>550000</v>
+        <v>350000</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>32</v>
@@ -1489,22 +1487,22 @@
         <v>20241231</v>
       </c>
       <c r="B29" s="7">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C29" s="8">
-        <v>120000</v>
+        <v>38571.428599999999</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F29" s="7">
         <v>20241231</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H29" s="7">
         <v>202412</v>
@@ -1521,22 +1519,22 @@
         <v>20241231</v>
       </c>
       <c r="B30" s="7">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C30" s="8">
-        <v>21600</v>
+        <v>300000</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F30" s="7">
         <v>20241231</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H30" s="7">
         <v>202412</v>
@@ -1553,22 +1551,22 @@
         <v>20241231</v>
       </c>
       <c r="B31" s="7">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C31" s="8">
-        <v>150000</v>
+        <v>39000</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F31" s="7">
         <v>20241231</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H31" s="7">
         <v>202412</v>
@@ -1585,22 +1583,22 @@
         <v>20241231</v>
       </c>
       <c r="B32" s="7">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C32" s="8">
-        <v>22500</v>
+        <v>520000</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F32" s="7">
         <v>20241231</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H32" s="7">
         <v>202412</v>
@@ -1617,22 +1615,22 @@
         <v>20241231</v>
       </c>
       <c r="B33" s="7">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C33" s="8">
-        <v>350000</v>
+        <v>24000</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F33" s="7">
         <v>20241231</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H33" s="7">
         <v>202412</v>
@@ -1649,22 +1647,22 @@
         <v>20241231</v>
       </c>
       <c r="B34" s="7">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C34" s="8">
-        <v>39375</v>
+        <v>400000</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F34" s="7">
         <v>20241231</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H34" s="7">
         <v>202412</v>
@@ -1681,22 +1679,22 @@
         <v>20241231</v>
       </c>
       <c r="B35" s="7">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C35" s="8">
-        <v>220000</v>
+        <v>27000</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F35" s="7">
         <v>20241231</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H35" s="7">
         <v>202412</v>
@@ -1713,22 +1711,22 @@
         <v>20241231</v>
       </c>
       <c r="B36" s="7">
+        <v>18</v>
+      </c>
+      <c r="C36" s="8">
+        <v>180000</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="8">
-        <v>39600</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="F36" s="7">
         <v>20241231</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H36" s="7">
         <v>202412</v>
@@ -1745,22 +1743,22 @@
         <v>20241231</v>
       </c>
       <c r="B37" s="7">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C37" s="8">
-        <v>140000</v>
+        <v>67500</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F37" s="7">
         <v>20241231</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H37" s="7">
         <v>202412</v>
@@ -1777,22 +1775,22 @@
         <v>20241231</v>
       </c>
       <c r="B38" s="7">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C38" s="8">
-        <v>25200</v>
+        <v>750000</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F38" s="7">
         <v>20241231</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H38" s="7">
         <v>202412</v>
@@ -1809,22 +1807,22 @@
         <v>20241231</v>
       </c>
       <c r="B39" s="7">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C39" s="8">
-        <v>180000</v>
+        <v>49500</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F39" s="7">
         <v>20241231</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H39" s="7">
         <v>202412</v>
@@ -1841,22 +1839,22 @@
         <v>20241231</v>
       </c>
       <c r="B40" s="7">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C40" s="8">
-        <v>27000</v>
+        <v>550000</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F40" s="7">
         <v>20241231</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H40" s="7">
         <v>202412</v>
@@ -1873,10 +1871,10 @@
         <v>20241231</v>
       </c>
       <c r="B41" s="7">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C41" s="8">
-        <v>37800</v>
+        <v>21600</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>30</v>
@@ -1905,10 +1903,10 @@
         <v>20241231</v>
       </c>
       <c r="B42" s="7">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C42" s="8">
-        <v>420000</v>
+        <v>120000</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>32</v>
@@ -1937,16 +1935,16 @@
         <v>20241231</v>
       </c>
       <c r="B43" s="7">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C43" s="8">
-        <v>320000</v>
+        <v>22500</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F43" s="7">
         <v>20241231</v>
@@ -1969,16 +1967,16 @@
         <v>20241231</v>
       </c>
       <c r="B44" s="7">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C44" s="8">
-        <v>41142.857100000001</v>
+        <v>150000</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F44" s="7">
         <v>20241231</v>
@@ -2001,10 +1999,10 @@
         <v>20241231</v>
       </c>
       <c r="B45" s="7">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C45" s="8">
-        <v>41250</v>
+        <v>39375</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>30</v>
@@ -2033,10 +2031,10 @@
         <v>20241231</v>
       </c>
       <c r="B46" s="7">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C46" s="8">
-        <v>550000</v>
+        <v>350000</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>32</v>
@@ -2065,10 +2063,10 @@
         <v>20241231</v>
       </c>
       <c r="B47" s="7">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C47" s="8">
-        <v>52500</v>
+        <v>39600</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>30</v>
@@ -2080,7 +2078,7 @@
         <v>20241231</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H47" s="7">
         <v>202412</v>
@@ -2097,10 +2095,10 @@
         <v>20241231</v>
       </c>
       <c r="B48" s="7">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C48" s="8">
-        <v>700000</v>
+        <v>220000</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>32</v>
@@ -2112,7 +2110,7 @@
         <v>20241231</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H48" s="7">
         <v>202412</v>
@@ -2129,16 +2127,16 @@
         <v>20241231</v>
       </c>
       <c r="B49" s="7">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C49" s="8">
-        <v>200000</v>
+        <v>25200</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F49" s="7">
         <v>20241231</v>
@@ -2161,16 +2159,16 @@
         <v>20241231</v>
       </c>
       <c r="B50" s="7">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C50" s="8">
-        <v>30000</v>
+        <v>140000</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F50" s="7">
         <v>20241231</v>
@@ -2193,10 +2191,10 @@
         <v>20241231</v>
       </c>
       <c r="B51" s="7">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C51" s="8">
-        <v>48750</v>
+        <v>27000</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>30</v>
@@ -2208,7 +2206,7 @@
         <v>20241231</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H51" s="7">
         <v>202412</v>
@@ -2225,10 +2223,10 @@
         <v>20241231</v>
       </c>
       <c r="B52" s="7">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C52" s="8">
-        <v>650000</v>
+        <v>180000</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>32</v>
@@ -2240,7 +2238,7 @@
         <v>20241231</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H52" s="7">
         <v>202412</v>
@@ -2257,10 +2255,10 @@
         <v>20241231</v>
       </c>
       <c r="B53" s="7">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C53" s="8">
-        <v>46800</v>
+        <v>37800</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>30</v>
@@ -2272,7 +2270,7 @@
         <v>20241231</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H53" s="7">
         <v>202412</v>
@@ -2289,10 +2287,10 @@
         <v>20241231</v>
       </c>
       <c r="B54" s="7">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C54" s="8">
-        <v>780000</v>
+        <v>420000</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>32</v>
@@ -2304,7 +2302,7 @@
         <v>20241231</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H54" s="7">
         <v>202412</v>
@@ -2321,10 +2319,10 @@
         <v>20241231</v>
       </c>
       <c r="B55" s="7">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C55" s="8">
-        <v>81000</v>
+        <v>41142.857100000001</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>30</v>
@@ -2336,7 +2334,7 @@
         <v>20241231</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H55" s="7">
         <v>202412</v>
@@ -2353,10 +2351,10 @@
         <v>20241231</v>
       </c>
       <c r="B56" s="7">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C56" s="8">
-        <v>900000</v>
+        <v>320000</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>32</v>
@@ -2368,7 +2366,7 @@
         <v>20241231</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H56" s="7">
         <v>202412</v>
@@ -2385,10 +2383,10 @@
         <v>20241231</v>
       </c>
       <c r="B57" s="7">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C57" s="8">
-        <v>54000</v>
+        <v>41250</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>30</v>
@@ -2400,7 +2398,7 @@
         <v>20241231</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H57" s="7">
         <v>202412</v>
@@ -2417,10 +2415,10 @@
         <v>20241231</v>
       </c>
       <c r="B58" s="7">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C58" s="8">
-        <v>600000</v>
+        <v>550000</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>32</v>
@@ -2432,7 +2430,7 @@
         <v>20241231</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H58" s="7">
         <v>202412</v>
@@ -2449,10 +2447,10 @@
         <v>20241231</v>
       </c>
       <c r="B59" s="7">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C59" s="8">
-        <v>106875</v>
+        <v>30000</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>30</v>
@@ -2464,7 +2462,7 @@
         <v>20241231</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H59" s="7">
         <v>202412</v>
@@ -2481,10 +2479,10 @@
         <v>20241231</v>
       </c>
       <c r="B60" s="7">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C60" s="8">
-        <v>950000</v>
+        <v>200000</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>32</v>
@@ -2496,7 +2494,7 @@
         <v>20241231</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H60" s="7">
         <v>202412</v>
@@ -2513,10 +2511,10 @@
         <v>20241231</v>
       </c>
       <c r="B61" s="7">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C61" s="8">
-        <v>54000</v>
+        <v>51000</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>30</v>
@@ -2545,10 +2543,10 @@
         <v>20241231</v>
       </c>
       <c r="B62" s="7">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C62" s="8">
-        <v>720000</v>
+        <v>850000</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>32</v>
@@ -2577,10 +2575,10 @@
         <v>20251231</v>
       </c>
       <c r="B63" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C63" s="8">
-        <v>51000</v>
+        <v>59142.857100000001</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>30</v>
@@ -2609,10 +2607,10 @@
         <v>20251231</v>
       </c>
       <c r="B64" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C64" s="8">
-        <v>45000</v>
+        <v>52500</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>30</v>
@@ -2641,10 +2639,10 @@
         <v>20251231</v>
       </c>
       <c r="B65" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C65" s="8">
-        <v>37800</v>
+        <v>48750</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>30</v>
@@ -2656,7 +2654,7 @@
         <v>20251231</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H65" s="7">
         <v>202512</v>
@@ -2673,10 +2671,10 @@
         <v>20251231</v>
       </c>
       <c r="B66" s="7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C66" s="8">
-        <v>36000</v>
+        <v>46800</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>30</v>
@@ -2688,7 +2686,7 @@
         <v>20251231</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H66" s="7">
         <v>202512</v>
@@ -2705,10 +2703,10 @@
         <v>20251231</v>
       </c>
       <c r="B67" s="7">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C67" s="8">
-        <v>29250</v>
+        <v>81000</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>30</v>
@@ -2720,7 +2718,7 @@
         <v>20251231</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H67" s="7">
         <v>202512</v>
@@ -2737,10 +2735,10 @@
         <v>20251231</v>
       </c>
       <c r="B68" s="7">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C68" s="8">
-        <v>31500</v>
+        <v>54000</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>30</v>
@@ -2752,7 +2750,7 @@
         <v>20251231</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H68" s="7">
         <v>202512</v>
@@ -2769,10 +2767,10 @@
         <v>20251231</v>
       </c>
       <c r="B69" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C69" s="8">
-        <v>38571.428599999999</v>
+        <v>106875</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>30</v>
@@ -2784,7 +2782,7 @@
         <v>20251231</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H69" s="7">
         <v>202512</v>
@@ -2801,10 +2799,10 @@
         <v>20251231</v>
       </c>
       <c r="B70" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C70" s="8">
-        <v>39000</v>
+        <v>54000</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>30</v>
@@ -2816,7 +2814,7 @@
         <v>20251231</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H70" s="7">
         <v>202512</v>
@@ -2833,10 +2831,10 @@
         <v>20251231</v>
       </c>
       <c r="B71" s="7">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C71" s="8">
-        <v>24000</v>
+        <v>45000</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>30</v>
@@ -2848,7 +2846,7 @@
         <v>20251231</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H71" s="7">
         <v>202512</v>
@@ -2865,10 +2863,10 @@
         <v>20251231</v>
       </c>
       <c r="B72" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C72" s="8">
-        <v>27000</v>
+        <v>37800</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>30</v>
@@ -2897,10 +2895,10 @@
         <v>20251231</v>
       </c>
       <c r="B73" s="7">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C73" s="8">
-        <v>67500</v>
+        <v>36000</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>30</v>
@@ -2929,10 +2927,10 @@
         <v>20251231</v>
       </c>
       <c r="B74" s="7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C74" s="8">
-        <v>59142.857100000001</v>
+        <v>29250</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>30</v>
@@ -2944,7 +2942,7 @@
         <v>20251231</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H74" s="7">
         <v>202512</v>
@@ -2961,10 +2959,10 @@
         <v>20251231</v>
       </c>
       <c r="B75" s="7">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C75" s="8">
-        <v>49500</v>
+        <v>31500</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>30</v>
@@ -2993,10 +2991,10 @@
         <v>20251231</v>
       </c>
       <c r="B76" s="7">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C76" s="8">
-        <v>21600</v>
+        <v>38571.428599999999</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>30</v>
@@ -3008,7 +3006,7 @@
         <v>20251231</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H76" s="7">
         <v>202512</v>
@@ -3025,10 +3023,10 @@
         <v>20251231</v>
       </c>
       <c r="B77" s="7">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C77" s="8">
-        <v>22500</v>
+        <v>39000</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>30</v>
@@ -3040,7 +3038,7 @@
         <v>20251231</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H77" s="7">
         <v>202512</v>
@@ -3057,10 +3055,10 @@
         <v>20251231</v>
       </c>
       <c r="B78" s="7">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C78" s="8">
-        <v>39375</v>
+        <v>24000</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>30</v>
@@ -3072,7 +3070,7 @@
         <v>20251231</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H78" s="7">
         <v>202512</v>
@@ -3089,10 +3087,10 @@
         <v>20251231</v>
       </c>
       <c r="B79" s="7">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C79" s="8">
-        <v>39600</v>
+        <v>27000</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>30</v>
@@ -3104,7 +3102,7 @@
         <v>20251231</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H79" s="7">
         <v>202512</v>
@@ -3121,10 +3119,10 @@
         <v>20251231</v>
       </c>
       <c r="B80" s="7">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C80" s="8">
-        <v>25200</v>
+        <v>67500</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>30</v>
@@ -3136,7 +3134,7 @@
         <v>20251231</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H80" s="7">
         <v>202512</v>
@@ -3153,10 +3151,10 @@
         <v>20251231</v>
       </c>
       <c r="B81" s="7">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C81" s="8">
-        <v>27000</v>
+        <v>49500</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>30</v>
@@ -3168,7 +3166,7 @@
         <v>20251231</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H81" s="7">
         <v>202512</v>
@@ -3185,10 +3183,10 @@
         <v>20251231</v>
       </c>
       <c r="B82" s="7">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C82" s="8">
-        <v>37800</v>
+        <v>21600</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>30</v>
@@ -3217,10 +3215,10 @@
         <v>20251231</v>
       </c>
       <c r="B83" s="7">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C83" s="8">
-        <v>41142.857100000001</v>
+        <v>22500</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>30</v>
@@ -3249,10 +3247,10 @@
         <v>20251231</v>
       </c>
       <c r="B84" s="7">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C84" s="8">
-        <v>41250</v>
+        <v>39375</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>30</v>
@@ -3281,10 +3279,10 @@
         <v>20251231</v>
       </c>
       <c r="B85" s="7">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C85" s="8">
-        <v>52500</v>
+        <v>39600</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>30</v>
@@ -3296,7 +3294,7 @@
         <v>20251231</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H85" s="7">
         <v>202512</v>
@@ -3313,10 +3311,10 @@
         <v>20251231</v>
       </c>
       <c r="B86" s="7">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C86" s="8">
-        <v>30000</v>
+        <v>25200</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>30</v>
@@ -3345,10 +3343,10 @@
         <v>20251231</v>
       </c>
       <c r="B87" s="7">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C87" s="8">
-        <v>48750</v>
+        <v>27000</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>30</v>
@@ -3360,7 +3358,7 @@
         <v>20251231</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H87" s="7">
         <v>202512</v>
@@ -3377,10 +3375,10 @@
         <v>20251231</v>
       </c>
       <c r="B88" s="7">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C88" s="8">
-        <v>46800</v>
+        <v>37800</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>30</v>
@@ -3392,7 +3390,7 @@
         <v>20251231</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H88" s="7">
         <v>202512</v>
@@ -3409,10 +3407,10 @@
         <v>20251231</v>
       </c>
       <c r="B89" s="7">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C89" s="8">
-        <v>81000</v>
+        <v>41142.857100000001</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>30</v>
@@ -3424,7 +3422,7 @@
         <v>20251231</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H89" s="7">
         <v>202512</v>
@@ -3441,10 +3439,10 @@
         <v>20251231</v>
       </c>
       <c r="B90" s="7">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C90" s="8">
-        <v>54000</v>
+        <v>41250</v>
       </c>
       <c r="D90" s="7" t="s">
         <v>30</v>
@@ -3456,7 +3454,7 @@
         <v>20251231</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H90" s="7">
         <v>202512</v>
@@ -3473,10 +3471,10 @@
         <v>20251231</v>
       </c>
       <c r="B91" s="7">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C91" s="8">
-        <v>106875</v>
+        <v>30000</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>30</v>
@@ -3488,7 +3486,7 @@
         <v>20251231</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H91" s="7">
         <v>202512</v>
@@ -3505,10 +3503,10 @@
         <v>20251231</v>
       </c>
       <c r="B92" s="7">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C92" s="8">
-        <v>54000</v>
+        <v>51000</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>30</v>
@@ -3537,10 +3535,10 @@
         <v>20261231</v>
       </c>
       <c r="B93" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C93" s="8">
-        <v>51000</v>
+        <v>59142.857100000001</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>30</v>
@@ -3569,10 +3567,10 @@
         <v>20261231</v>
       </c>
       <c r="B94" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C94" s="8">
-        <v>45000</v>
+        <v>52500</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>30</v>
@@ -3601,10 +3599,10 @@
         <v>20261231</v>
       </c>
       <c r="B95" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C95" s="8">
-        <v>37800</v>
+        <v>48750</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>30</v>
@@ -3616,7 +3614,7 @@
         <v>20261231</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H95" s="7">
         <v>202612</v>
@@ -3633,10 +3631,10 @@
         <v>20261231</v>
       </c>
       <c r="B96" s="7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C96" s="8">
-        <v>36000</v>
+        <v>46800</v>
       </c>
       <c r="D96" s="7" t="s">
         <v>30</v>
@@ -3648,7 +3646,7 @@
         <v>20261231</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H96" s="7">
         <v>202612</v>
@@ -3665,10 +3663,10 @@
         <v>20261231</v>
       </c>
       <c r="B97" s="7">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C97" s="8">
-        <v>29250</v>
+        <v>81000</v>
       </c>
       <c r="D97" s="7" t="s">
         <v>30</v>
@@ -3680,7 +3678,7 @@
         <v>20261231</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H97" s="7">
         <v>202612</v>
@@ -3697,10 +3695,10 @@
         <v>20261231</v>
       </c>
       <c r="B98" s="7">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C98" s="8">
-        <v>31500</v>
+        <v>54000</v>
       </c>
       <c r="D98" s="7" t="s">
         <v>30</v>
@@ -3712,7 +3710,7 @@
         <v>20261231</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H98" s="7">
         <v>202612</v>
@@ -3729,10 +3727,10 @@
         <v>20261231</v>
       </c>
       <c r="B99" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C99" s="8">
-        <v>38571.428599999999</v>
+        <v>106875</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>30</v>
@@ -3744,7 +3742,7 @@
         <v>20261231</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H99" s="7">
         <v>202612</v>
@@ -3761,10 +3759,10 @@
         <v>20261231</v>
       </c>
       <c r="B100" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C100" s="8">
-        <v>39000</v>
+        <v>54000</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>30</v>
@@ -3776,7 +3774,7 @@
         <v>20261231</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H100" s="7">
         <v>202612</v>
@@ -3793,10 +3791,10 @@
         <v>20261231</v>
       </c>
       <c r="B101" s="7">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C101" s="8">
-        <v>24000</v>
+        <v>45000</v>
       </c>
       <c r="D101" s="7" t="s">
         <v>30</v>
@@ -3808,7 +3806,7 @@
         <v>20261231</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H101" s="7">
         <v>202612</v>
@@ -3825,10 +3823,10 @@
         <v>20261231</v>
       </c>
       <c r="B102" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C102" s="8">
-        <v>27000</v>
+        <v>37800</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>30</v>
@@ -3857,10 +3855,10 @@
         <v>20261231</v>
       </c>
       <c r="B103" s="7">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C103" s="8">
-        <v>67500</v>
+        <v>36000</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>30</v>
@@ -3889,10 +3887,10 @@
         <v>20261231</v>
       </c>
       <c r="B104" s="7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C104" s="8">
-        <v>59142.857100000001</v>
+        <v>29250</v>
       </c>
       <c r="D104" s="7" t="s">
         <v>30</v>
@@ -3904,7 +3902,7 @@
         <v>20261231</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H104" s="7">
         <v>202612</v>
@@ -3921,10 +3919,10 @@
         <v>20261231</v>
       </c>
       <c r="B105" s="7">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C105" s="8">
-        <v>49500</v>
+        <v>31500</v>
       </c>
       <c r="D105" s="7" t="s">
         <v>30</v>
@@ -3953,10 +3951,10 @@
         <v>20261231</v>
       </c>
       <c r="B106" s="7">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C106" s="8">
-        <v>21600</v>
+        <v>38571.428599999999</v>
       </c>
       <c r="D106" s="7" t="s">
         <v>30</v>
@@ -3968,7 +3966,7 @@
         <v>20261231</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H106" s="7">
         <v>202612</v>
@@ -3985,10 +3983,10 @@
         <v>20261231</v>
       </c>
       <c r="B107" s="7">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C107" s="8">
-        <v>22500</v>
+        <v>39000</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>30</v>
@@ -4000,7 +3998,7 @@
         <v>20261231</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H107" s="7">
         <v>202612</v>
@@ -4017,10 +4015,10 @@
         <v>20261231</v>
       </c>
       <c r="B108" s="7">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C108" s="8">
-        <v>39375</v>
+        <v>24000</v>
       </c>
       <c r="D108" s="7" t="s">
         <v>30</v>
@@ -4032,7 +4030,7 @@
         <v>20261231</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H108" s="7">
         <v>202612</v>
@@ -4049,10 +4047,10 @@
         <v>20261231</v>
       </c>
       <c r="B109" s="7">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C109" s="8">
-        <v>39600</v>
+        <v>27000</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>30</v>
@@ -4064,7 +4062,7 @@
         <v>20261231</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H109" s="7">
         <v>202612</v>
@@ -4081,10 +4079,10 @@
         <v>20261231</v>
       </c>
       <c r="B110" s="7">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C110" s="8">
-        <v>25200</v>
+        <v>67500</v>
       </c>
       <c r="D110" s="7" t="s">
         <v>30</v>
@@ -4096,7 +4094,7 @@
         <v>20261231</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H110" s="7">
         <v>202612</v>
@@ -4113,10 +4111,10 @@
         <v>20261231</v>
       </c>
       <c r="B111" s="7">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C111" s="8">
-        <v>27000</v>
+        <v>49500</v>
       </c>
       <c r="D111" s="7" t="s">
         <v>30</v>
@@ -4128,7 +4126,7 @@
         <v>20261231</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H111" s="7">
         <v>202612</v>
@@ -4145,10 +4143,10 @@
         <v>20261231</v>
       </c>
       <c r="B112" s="7">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C112" s="8">
-        <v>37800</v>
+        <v>21600</v>
       </c>
       <c r="D112" s="7" t="s">
         <v>30</v>
@@ -4177,10 +4175,10 @@
         <v>20261231</v>
       </c>
       <c r="B113" s="7">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C113" s="8">
-        <v>41142.857100000001</v>
+        <v>22500</v>
       </c>
       <c r="D113" s="7" t="s">
         <v>30</v>
@@ -4209,10 +4207,10 @@
         <v>20261231</v>
       </c>
       <c r="B114" s="7">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C114" s="8">
-        <v>41250</v>
+        <v>39375</v>
       </c>
       <c r="D114" s="7" t="s">
         <v>30</v>
@@ -4241,10 +4239,10 @@
         <v>20261231</v>
       </c>
       <c r="B115" s="7">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C115" s="8">
-        <v>52500</v>
+        <v>39600</v>
       </c>
       <c r="D115" s="7" t="s">
         <v>30</v>
@@ -4256,7 +4254,7 @@
         <v>20261231</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H115" s="7">
         <v>202612</v>
@@ -4273,10 +4271,10 @@
         <v>20261231</v>
       </c>
       <c r="B116" s="7">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C116" s="8">
-        <v>30000</v>
+        <v>25200</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>30</v>
@@ -4305,10 +4303,10 @@
         <v>20261231</v>
       </c>
       <c r="B117" s="7">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C117" s="8">
-        <v>48750</v>
+        <v>27000</v>
       </c>
       <c r="D117" s="7" t="s">
         <v>30</v>
@@ -4320,7 +4318,7 @@
         <v>20261231</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H117" s="7">
         <v>202612</v>
@@ -4337,10 +4335,10 @@
         <v>20261231</v>
       </c>
       <c r="B118" s="7">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C118" s="8">
-        <v>46800</v>
+        <v>37800</v>
       </c>
       <c r="D118" s="7" t="s">
         <v>30</v>
@@ -4352,7 +4350,7 @@
         <v>20261231</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H118" s="7">
         <v>202612</v>
@@ -4369,10 +4367,10 @@
         <v>20261231</v>
       </c>
       <c r="B119" s="7">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C119" s="8">
-        <v>81000</v>
+        <v>41142.857100000001</v>
       </c>
       <c r="D119" s="7" t="s">
         <v>30</v>
@@ -4384,7 +4382,7 @@
         <v>20261231</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H119" s="7">
         <v>202612</v>
@@ -4401,10 +4399,10 @@
         <v>20261231</v>
       </c>
       <c r="B120" s="7">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C120" s="8">
-        <v>54000</v>
+        <v>41250</v>
       </c>
       <c r="D120" s="7" t="s">
         <v>30</v>
@@ -4416,7 +4414,7 @@
         <v>20261231</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H120" s="7">
         <v>202612</v>
@@ -4433,10 +4431,10 @@
         <v>20261231</v>
       </c>
       <c r="B121" s="7">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C121" s="8">
-        <v>106875</v>
+        <v>30000</v>
       </c>
       <c r="D121" s="7" t="s">
         <v>30</v>
@@ -4448,7 +4446,7 @@
         <v>20261231</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H121" s="7">
         <v>202612</v>
@@ -4465,10 +4463,10 @@
         <v>20261231</v>
       </c>
       <c r="B122" s="7">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C122" s="8">
-        <v>54000</v>
+        <v>51000</v>
       </c>
       <c r="D122" s="7" t="s">
         <v>30</v>
@@ -4493,6 +4491,17 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J122">
+    <sortCondition ref="A3:A122"/>
+    <sortCondition ref="B3:B122"/>
+    <sortCondition ref="C3:C122"/>
+    <sortCondition ref="D3:D122"/>
+    <sortCondition ref="E3:E122"/>
+    <sortCondition ref="F3:F122"/>
+    <sortCondition ref="G3:G122"/>
+    <sortCondition ref="H3:H122"/>
+    <sortCondition ref="I3:I122"/>
+  </sortState>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
@@ -4506,7 +4515,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FECB62E0-4531-4514-A111-DB44AEC2692A}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>

--- a/src/test/resources/TestDriver/TestAsset/Test.xlsx
+++ b/src/test/resources/TestDriver/TestAsset/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestAsset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E206508-AE65-4866-8946-D32921BBAC22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448A7925-080D-45B1-B786-0C3DDA776107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
@@ -599,7 +599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J122"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -655,10 +655,10 @@
         <v>20241231</v>
       </c>
       <c r="B3" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C3" s="8">
-        <v>59142.857100000001</v>
+        <v>45000</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>30</v>
@@ -687,10 +687,10 @@
         <v>20241231</v>
       </c>
       <c r="B4" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C4" s="8">
-        <v>920000</v>
+        <v>500000</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>32</v>
@@ -719,10 +719,10 @@
         <v>20241231</v>
       </c>
       <c r="B5" s="7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C5" s="8">
-        <v>52500</v>
+        <v>37800</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>30</v>
@@ -734,7 +734,7 @@
         <v>20241231</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H5" s="7">
         <v>202412</v>
@@ -751,10 +751,10 @@
         <v>20241231</v>
       </c>
       <c r="B6" s="7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C6" s="8">
-        <v>700000</v>
+        <v>420000</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>32</v>
@@ -766,7 +766,7 @@
         <v>20241231</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>202412</v>
@@ -783,10 +783,10 @@
         <v>20241231</v>
       </c>
       <c r="B7" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C7" s="8">
-        <v>48750</v>
+        <v>36000</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>30</v>
@@ -798,7 +798,7 @@
         <v>20241231</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
         <v>202412</v>
@@ -815,10 +815,10 @@
         <v>20241231</v>
       </c>
       <c r="B8" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C8" s="8">
-        <v>650000</v>
+        <v>480000</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>32</v>
@@ -830,7 +830,7 @@
         <v>20241231</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H8" s="7">
         <v>202412</v>
@@ -847,22 +847,22 @@
         <v>20241231</v>
       </c>
       <c r="B9" s="7">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C9" s="8">
-        <v>46800</v>
+        <v>260000</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F9" s="7">
         <v>20241231</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H9" s="7">
         <v>202412</v>
@@ -879,22 +879,22 @@
         <v>20241231</v>
       </c>
       <c r="B10" s="7">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C10" s="8">
-        <v>780000</v>
+        <v>29250</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" s="7">
         <v>20241231</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H10" s="7">
         <v>202412</v>
@@ -911,10 +911,10 @@
         <v>20241231</v>
       </c>
       <c r="B11" s="7">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C11" s="8">
-        <v>81000</v>
+        <v>31500</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>30</v>
@@ -926,7 +926,7 @@
         <v>20241231</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H11" s="7">
         <v>202412</v>
@@ -943,10 +943,10 @@
         <v>20241231</v>
       </c>
       <c r="B12" s="7">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C12" s="8">
-        <v>900000</v>
+        <v>350000</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>32</v>
@@ -958,7 +958,7 @@
         <v>20241231</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H12" s="7">
         <v>202412</v>
@@ -975,22 +975,22 @@
         <v>20241231</v>
       </c>
       <c r="B13" s="7">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C13" s="8">
-        <v>54000</v>
+        <v>300000</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F13" s="7">
         <v>20241231</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H13" s="7">
         <v>202412</v>
@@ -1007,22 +1007,22 @@
         <v>20241231</v>
       </c>
       <c r="B14" s="7">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C14" s="8">
-        <v>600000</v>
+        <v>38571.428599999999</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F14" s="7">
         <v>20241231</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H14" s="7">
         <v>202412</v>
@@ -1039,10 +1039,10 @@
         <v>20241231</v>
       </c>
       <c r="B15" s="7">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C15" s="8">
-        <v>106875</v>
+        <v>39000</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>30</v>
@@ -1054,7 +1054,7 @@
         <v>20241231</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H15" s="7">
         <v>202412</v>
@@ -1071,10 +1071,10 @@
         <v>20241231</v>
       </c>
       <c r="B16" s="7">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C16" s="8">
-        <v>950000</v>
+        <v>520000</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>32</v>
@@ -1086,7 +1086,7 @@
         <v>20241231</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H16" s="7">
         <v>202412</v>
@@ -1103,10 +1103,10 @@
         <v>20241231</v>
       </c>
       <c r="B17" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C17" s="8">
-        <v>54000</v>
+        <v>24000</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>30</v>
@@ -1118,7 +1118,7 @@
         <v>20241231</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H17" s="7">
         <v>202412</v>
@@ -1135,10 +1135,10 @@
         <v>20241231</v>
       </c>
       <c r="B18" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C18" s="8">
-        <v>720000</v>
+        <v>400000</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>32</v>
@@ -1150,7 +1150,7 @@
         <v>20241231</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H18" s="7">
         <v>202412</v>
@@ -1167,22 +1167,22 @@
         <v>20241231</v>
       </c>
       <c r="B19" s="7">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C19" s="8">
-        <v>45000</v>
+        <v>180000</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F19" s="7">
         <v>20241231</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H19" s="7">
         <v>202412</v>
@@ -1199,22 +1199,22 @@
         <v>20241231</v>
       </c>
       <c r="B20" s="7">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C20" s="8">
-        <v>500000</v>
+        <v>27000</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F20" s="7">
         <v>20241231</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H20" s="7">
         <v>202412</v>
@@ -1231,10 +1231,10 @@
         <v>20241231</v>
       </c>
       <c r="B21" s="7">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C21" s="8">
-        <v>37800</v>
+        <v>67500</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>30</v>
@@ -1263,10 +1263,10 @@
         <v>20241231</v>
       </c>
       <c r="B22" s="7">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C22" s="8">
-        <v>420000</v>
+        <v>750000</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>32</v>
@@ -1295,10 +1295,10 @@
         <v>20241231</v>
       </c>
       <c r="B23" s="7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C23" s="8">
-        <v>36000</v>
+        <v>59142.857100000001</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>30</v>
@@ -1310,7 +1310,7 @@
         <v>20241231</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H23" s="7">
         <v>202412</v>
@@ -1327,10 +1327,10 @@
         <v>20241231</v>
       </c>
       <c r="B24" s="7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C24" s="8">
-        <v>480000</v>
+        <v>920000</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>32</v>
@@ -1342,7 +1342,7 @@
         <v>20241231</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H24" s="7">
         <v>202412</v>
@@ -1359,10 +1359,10 @@
         <v>20241231</v>
       </c>
       <c r="B25" s="7">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C25" s="8">
-        <v>29250</v>
+        <v>49500</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>30</v>
@@ -1391,10 +1391,10 @@
         <v>20241231</v>
       </c>
       <c r="B26" s="7">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C26" s="8">
-        <v>260000</v>
+        <v>550000</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>32</v>
@@ -1423,22 +1423,22 @@
         <v>20241231</v>
       </c>
       <c r="B27" s="7">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C27" s="8">
-        <v>31500</v>
+        <v>120000</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F27" s="7">
         <v>20241231</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H27" s="7">
         <v>202412</v>
@@ -1455,22 +1455,22 @@
         <v>20241231</v>
       </c>
       <c r="B28" s="7">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C28" s="8">
-        <v>350000</v>
+        <v>21600</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F28" s="7">
         <v>20241231</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H28" s="7">
         <v>202412</v>
@@ -1487,22 +1487,22 @@
         <v>20241231</v>
       </c>
       <c r="B29" s="7">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C29" s="8">
-        <v>38571.428599999999</v>
+        <v>150000</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F29" s="7">
         <v>20241231</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H29" s="7">
         <v>202412</v>
@@ -1519,22 +1519,22 @@
         <v>20241231</v>
       </c>
       <c r="B30" s="7">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C30" s="8">
-        <v>300000</v>
+        <v>22500</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F30" s="7">
         <v>20241231</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H30" s="7">
         <v>202412</v>
@@ -1551,22 +1551,22 @@
         <v>20241231</v>
       </c>
       <c r="B31" s="7">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C31" s="8">
-        <v>39000</v>
+        <v>350000</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F31" s="7">
         <v>20241231</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H31" s="7">
         <v>202412</v>
@@ -1583,22 +1583,22 @@
         <v>20241231</v>
       </c>
       <c r="B32" s="7">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C32" s="8">
-        <v>520000</v>
+        <v>39375</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F32" s="7">
         <v>20241231</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H32" s="7">
         <v>202412</v>
@@ -1615,22 +1615,22 @@
         <v>20241231</v>
       </c>
       <c r="B33" s="7">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C33" s="8">
-        <v>24000</v>
+        <v>220000</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F33" s="7">
         <v>20241231</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H33" s="7">
         <v>202412</v>
@@ -1647,22 +1647,22 @@
         <v>20241231</v>
       </c>
       <c r="B34" s="7">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C34" s="8">
-        <v>400000</v>
+        <v>39600</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F34" s="7">
         <v>20241231</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H34" s="7">
         <v>202412</v>
@@ -1679,22 +1679,22 @@
         <v>20241231</v>
       </c>
       <c r="B35" s="7">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C35" s="8">
-        <v>27000</v>
+        <v>140000</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F35" s="7">
         <v>20241231</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H35" s="7">
         <v>202412</v>
@@ -1711,22 +1711,22 @@
         <v>20241231</v>
       </c>
       <c r="B36" s="7">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C36" s="8">
-        <v>180000</v>
+        <v>25200</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F36" s="7">
         <v>20241231</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H36" s="7">
         <v>202412</v>
@@ -1743,22 +1743,22 @@
         <v>20241231</v>
       </c>
       <c r="B37" s="7">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C37" s="8">
-        <v>67500</v>
+        <v>180000</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F37" s="7">
         <v>20241231</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H37" s="7">
         <v>202412</v>
@@ -1775,22 +1775,22 @@
         <v>20241231</v>
       </c>
       <c r="B38" s="7">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C38" s="8">
-        <v>750000</v>
+        <v>27000</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F38" s="7">
         <v>20241231</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H38" s="7">
         <v>202412</v>
@@ -1807,10 +1807,10 @@
         <v>20241231</v>
       </c>
       <c r="B39" s="7">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C39" s="8">
-        <v>49500</v>
+        <v>37800</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>30</v>
@@ -1822,7 +1822,7 @@
         <v>20241231</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H39" s="7">
         <v>202412</v>
@@ -1839,10 +1839,10 @@
         <v>20241231</v>
       </c>
       <c r="B40" s="7">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C40" s="8">
-        <v>550000</v>
+        <v>420000</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>32</v>
@@ -1854,7 +1854,7 @@
         <v>20241231</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H40" s="7">
         <v>202412</v>
@@ -1871,16 +1871,16 @@
         <v>20241231</v>
       </c>
       <c r="B41" s="7">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C41" s="8">
-        <v>21600</v>
+        <v>320000</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F41" s="7">
         <v>20241231</v>
@@ -1903,16 +1903,16 @@
         <v>20241231</v>
       </c>
       <c r="B42" s="7">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C42" s="8">
-        <v>120000</v>
+        <v>41142.857100000001</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F42" s="7">
         <v>20241231</v>
@@ -1935,10 +1935,10 @@
         <v>20241231</v>
       </c>
       <c r="B43" s="7">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C43" s="8">
-        <v>22500</v>
+        <v>41250</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>30</v>
@@ -1967,10 +1967,10 @@
         <v>20241231</v>
       </c>
       <c r="B44" s="7">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C44" s="8">
-        <v>150000</v>
+        <v>550000</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>32</v>
@@ -1999,10 +1999,10 @@
         <v>20241231</v>
       </c>
       <c r="B45" s="7">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C45" s="8">
-        <v>39375</v>
+        <v>52500</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>30</v>
@@ -2014,7 +2014,7 @@
         <v>20241231</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H45" s="7">
         <v>202412</v>
@@ -2031,10 +2031,10 @@
         <v>20241231</v>
       </c>
       <c r="B46" s="7">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C46" s="8">
-        <v>350000</v>
+        <v>700000</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>32</v>
@@ -2046,7 +2046,7 @@
         <v>20241231</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H46" s="7">
         <v>202412</v>
@@ -2063,16 +2063,16 @@
         <v>20241231</v>
       </c>
       <c r="B47" s="7">
+        <v>30</v>
+      </c>
+      <c r="C47" s="8">
+        <v>200000</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="C47" s="8">
-        <v>39600</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="F47" s="7">
         <v>20241231</v>
@@ -2095,16 +2095,16 @@
         <v>20241231</v>
       </c>
       <c r="B48" s="7">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C48" s="8">
-        <v>220000</v>
+        <v>30000</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F48" s="7">
         <v>20241231</v>
@@ -2127,10 +2127,10 @@
         <v>20241231</v>
       </c>
       <c r="B49" s="7">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C49" s="8">
-        <v>25200</v>
+        <v>51000</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>30</v>
@@ -2142,7 +2142,7 @@
         <v>20241231</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H49" s="7">
         <v>202412</v>
@@ -2159,10 +2159,10 @@
         <v>20241231</v>
       </c>
       <c r="B50" s="7">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C50" s="8">
-        <v>140000</v>
+        <v>850000</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>32</v>
@@ -2174,7 +2174,7 @@
         <v>20241231</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H50" s="7">
         <v>202412</v>
@@ -2191,10 +2191,10 @@
         <v>20241231</v>
       </c>
       <c r="B51" s="7">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C51" s="8">
-        <v>27000</v>
+        <v>48750</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>30</v>
@@ -2206,7 +2206,7 @@
         <v>20241231</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H51" s="7">
         <v>202412</v>
@@ -2223,10 +2223,10 @@
         <v>20241231</v>
       </c>
       <c r="B52" s="7">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C52" s="8">
-        <v>180000</v>
+        <v>650000</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>32</v>
@@ -2238,7 +2238,7 @@
         <v>20241231</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H52" s="7">
         <v>202412</v>
@@ -2255,10 +2255,10 @@
         <v>20241231</v>
       </c>
       <c r="B53" s="7">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C53" s="8">
-        <v>37800</v>
+        <v>46800</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>30</v>
@@ -2270,7 +2270,7 @@
         <v>20241231</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H53" s="7">
         <v>202412</v>
@@ -2287,10 +2287,10 @@
         <v>20241231</v>
       </c>
       <c r="B54" s="7">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C54" s="8">
-        <v>420000</v>
+        <v>780000</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>32</v>
@@ -2302,7 +2302,7 @@
         <v>20241231</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H54" s="7">
         <v>202412</v>
@@ -2319,10 +2319,10 @@
         <v>20241231</v>
       </c>
       <c r="B55" s="7">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C55" s="8">
-        <v>41142.857100000001</v>
+        <v>81000</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>30</v>
@@ -2334,7 +2334,7 @@
         <v>20241231</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H55" s="7">
         <v>202412</v>
@@ -2351,10 +2351,10 @@
         <v>20241231</v>
       </c>
       <c r="B56" s="7">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C56" s="8">
-        <v>320000</v>
+        <v>900000</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>32</v>
@@ -2366,7 +2366,7 @@
         <v>20241231</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H56" s="7">
         <v>202412</v>
@@ -2383,10 +2383,10 @@
         <v>20241231</v>
       </c>
       <c r="B57" s="7">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C57" s="8">
-        <v>41250</v>
+        <v>54000</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>30</v>
@@ -2398,7 +2398,7 @@
         <v>20241231</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H57" s="7">
         <v>202412</v>
@@ -2415,10 +2415,10 @@
         <v>20241231</v>
       </c>
       <c r="B58" s="7">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C58" s="8">
-        <v>550000</v>
+        <v>600000</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>32</v>
@@ -2430,7 +2430,7 @@
         <v>20241231</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H58" s="7">
         <v>202412</v>
@@ -2447,10 +2447,10 @@
         <v>20241231</v>
       </c>
       <c r="B59" s="7">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C59" s="8">
-        <v>30000</v>
+        <v>106875</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>30</v>
@@ -2462,7 +2462,7 @@
         <v>20241231</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H59" s="7">
         <v>202412</v>
@@ -2479,10 +2479,10 @@
         <v>20241231</v>
       </c>
       <c r="B60" s="7">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C60" s="8">
-        <v>200000</v>
+        <v>950000</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>32</v>
@@ -2494,7 +2494,7 @@
         <v>20241231</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H60" s="7">
         <v>202412</v>
@@ -2511,10 +2511,10 @@
         <v>20241231</v>
       </c>
       <c r="B61" s="7">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C61" s="8">
-        <v>51000</v>
+        <v>54000</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>30</v>
@@ -2543,10 +2543,10 @@
         <v>20241231</v>
       </c>
       <c r="B62" s="7">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C62" s="8">
-        <v>850000</v>
+        <v>720000</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>32</v>
@@ -2575,10 +2575,10 @@
         <v>20251231</v>
       </c>
       <c r="B63" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C63" s="8">
-        <v>59142.857100000001</v>
+        <v>45000</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>30</v>
@@ -2607,10 +2607,10 @@
         <v>20251231</v>
       </c>
       <c r="B64" s="7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C64" s="8">
-        <v>52500</v>
+        <v>37800</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>30</v>
@@ -2622,7 +2622,7 @@
         <v>20251231</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H64" s="7">
         <v>202512</v>
@@ -2639,10 +2639,10 @@
         <v>20251231</v>
       </c>
       <c r="B65" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C65" s="8">
-        <v>48750</v>
+        <v>36000</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>30</v>
@@ -2654,7 +2654,7 @@
         <v>20251231</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H65" s="7">
         <v>202512</v>
@@ -2671,10 +2671,10 @@
         <v>20251231</v>
       </c>
       <c r="B66" s="7">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C66" s="8">
-        <v>46800</v>
+        <v>29250</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>30</v>
@@ -2686,7 +2686,7 @@
         <v>20251231</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H66" s="7">
         <v>202512</v>
@@ -2703,10 +2703,10 @@
         <v>20251231</v>
       </c>
       <c r="B67" s="7">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C67" s="8">
-        <v>81000</v>
+        <v>31500</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>30</v>
@@ -2718,7 +2718,7 @@
         <v>20251231</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H67" s="7">
         <v>202512</v>
@@ -2735,10 +2735,10 @@
         <v>20251231</v>
       </c>
       <c r="B68" s="7">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C68" s="8">
-        <v>54000</v>
+        <v>38571.428599999999</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>30</v>
@@ -2750,7 +2750,7 @@
         <v>20251231</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H68" s="7">
         <v>202512</v>
@@ -2767,10 +2767,10 @@
         <v>20251231</v>
       </c>
       <c r="B69" s="7">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C69" s="8">
-        <v>106875</v>
+        <v>39000</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>30</v>
@@ -2782,7 +2782,7 @@
         <v>20251231</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H69" s="7">
         <v>202512</v>
@@ -2799,10 +2799,10 @@
         <v>20251231</v>
       </c>
       <c r="B70" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C70" s="8">
-        <v>54000</v>
+        <v>24000</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>30</v>
@@ -2814,7 +2814,7 @@
         <v>20251231</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H70" s="7">
         <v>202512</v>
@@ -2831,10 +2831,10 @@
         <v>20251231</v>
       </c>
       <c r="B71" s="7">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C71" s="8">
-        <v>45000</v>
+        <v>27000</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>30</v>
@@ -2846,7 +2846,7 @@
         <v>20251231</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H71" s="7">
         <v>202512</v>
@@ -2863,10 +2863,10 @@
         <v>20251231</v>
       </c>
       <c r="B72" s="7">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C72" s="8">
-        <v>37800</v>
+        <v>67500</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>30</v>
@@ -2895,10 +2895,10 @@
         <v>20251231</v>
       </c>
       <c r="B73" s="7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C73" s="8">
-        <v>36000</v>
+        <v>59142.857100000001</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>30</v>
@@ -2910,7 +2910,7 @@
         <v>20251231</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H73" s="7">
         <v>202512</v>
@@ -2927,10 +2927,10 @@
         <v>20251231</v>
       </c>
       <c r="B74" s="7">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C74" s="8">
-        <v>29250</v>
+        <v>49500</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>30</v>
@@ -2959,10 +2959,10 @@
         <v>20251231</v>
       </c>
       <c r="B75" s="7">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C75" s="8">
-        <v>31500</v>
+        <v>21600</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>30</v>
@@ -2974,7 +2974,7 @@
         <v>20251231</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H75" s="7">
         <v>202512</v>
@@ -2991,10 +2991,10 @@
         <v>20251231</v>
       </c>
       <c r="B76" s="7">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C76" s="8">
-        <v>38571.428599999999</v>
+        <v>22500</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>30</v>
@@ -3006,7 +3006,7 @@
         <v>20251231</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H76" s="7">
         <v>202512</v>
@@ -3023,10 +3023,10 @@
         <v>20251231</v>
       </c>
       <c r="B77" s="7">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C77" s="8">
-        <v>39000</v>
+        <v>39375</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>30</v>
@@ -3038,7 +3038,7 @@
         <v>20251231</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H77" s="7">
         <v>202512</v>
@@ -3055,10 +3055,10 @@
         <v>20251231</v>
       </c>
       <c r="B78" s="7">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C78" s="8">
-        <v>24000</v>
+        <v>39600</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>30</v>
@@ -3070,7 +3070,7 @@
         <v>20251231</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H78" s="7">
         <v>202512</v>
@@ -3087,10 +3087,10 @@
         <v>20251231</v>
       </c>
       <c r="B79" s="7">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C79" s="8">
-        <v>27000</v>
+        <v>25200</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>30</v>
@@ -3102,7 +3102,7 @@
         <v>20251231</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H79" s="7">
         <v>202512</v>
@@ -3119,10 +3119,10 @@
         <v>20251231</v>
       </c>
       <c r="B80" s="7">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C80" s="8">
-        <v>67500</v>
+        <v>27000</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>30</v>
@@ -3134,7 +3134,7 @@
         <v>20251231</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H80" s="7">
         <v>202512</v>
@@ -3151,10 +3151,10 @@
         <v>20251231</v>
       </c>
       <c r="B81" s="7">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C81" s="8">
-        <v>49500</v>
+        <v>37800</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>30</v>
@@ -3166,7 +3166,7 @@
         <v>20251231</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H81" s="7">
         <v>202512</v>
@@ -3183,10 +3183,10 @@
         <v>20251231</v>
       </c>
       <c r="B82" s="7">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C82" s="8">
-        <v>21600</v>
+        <v>41142.857100000001</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>30</v>
@@ -3215,10 +3215,10 @@
         <v>20251231</v>
       </c>
       <c r="B83" s="7">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C83" s="8">
-        <v>22500</v>
+        <v>41250</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>30</v>
@@ -3247,10 +3247,10 @@
         <v>20251231</v>
       </c>
       <c r="B84" s="7">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C84" s="8">
-        <v>39375</v>
+        <v>52500</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>30</v>
@@ -3262,7 +3262,7 @@
         <v>20251231</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H84" s="7">
         <v>202512</v>
@@ -3279,10 +3279,10 @@
         <v>20251231</v>
       </c>
       <c r="B85" s="7">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C85" s="8">
-        <v>39600</v>
+        <v>30000</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>30</v>
@@ -3311,10 +3311,10 @@
         <v>20251231</v>
       </c>
       <c r="B86" s="7">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C86" s="8">
-        <v>25200</v>
+        <v>51000</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>30</v>
@@ -3326,7 +3326,7 @@
         <v>20251231</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H86" s="7">
         <v>202512</v>
@@ -3343,10 +3343,10 @@
         <v>20251231</v>
       </c>
       <c r="B87" s="7">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C87" s="8">
-        <v>27000</v>
+        <v>48750</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>30</v>
@@ -3358,7 +3358,7 @@
         <v>20251231</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H87" s="7">
         <v>202512</v>
@@ -3375,10 +3375,10 @@
         <v>20251231</v>
       </c>
       <c r="B88" s="7">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C88" s="8">
-        <v>37800</v>
+        <v>46800</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>30</v>
@@ -3390,7 +3390,7 @@
         <v>20251231</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H88" s="7">
         <v>202512</v>
@@ -3407,10 +3407,10 @@
         <v>20251231</v>
       </c>
       <c r="B89" s="7">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C89" s="8">
-        <v>41142.857100000001</v>
+        <v>81000</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>30</v>
@@ -3422,7 +3422,7 @@
         <v>20251231</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H89" s="7">
         <v>202512</v>
@@ -3439,10 +3439,10 @@
         <v>20251231</v>
       </c>
       <c r="B90" s="7">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C90" s="8">
-        <v>41250</v>
+        <v>54000</v>
       </c>
       <c r="D90" s="7" t="s">
         <v>30</v>
@@ -3454,7 +3454,7 @@
         <v>20251231</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H90" s="7">
         <v>202512</v>
@@ -3471,10 +3471,10 @@
         <v>20251231</v>
       </c>
       <c r="B91" s="7">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C91" s="8">
-        <v>30000</v>
+        <v>106875</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>30</v>
@@ -3486,7 +3486,7 @@
         <v>20251231</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H91" s="7">
         <v>202512</v>
@@ -3503,10 +3503,10 @@
         <v>20251231</v>
       </c>
       <c r="B92" s="7">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C92" s="8">
-        <v>51000</v>
+        <v>54000</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>30</v>
@@ -3535,10 +3535,10 @@
         <v>20261231</v>
       </c>
       <c r="B93" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C93" s="8">
-        <v>59142.857100000001</v>
+        <v>45000</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>30</v>
@@ -3567,10 +3567,10 @@
         <v>20261231</v>
       </c>
       <c r="B94" s="7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C94" s="8">
-        <v>52500</v>
+        <v>37800</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>30</v>
@@ -3582,7 +3582,7 @@
         <v>20261231</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H94" s="7">
         <v>202612</v>
@@ -3599,10 +3599,10 @@
         <v>20261231</v>
       </c>
       <c r="B95" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C95" s="8">
-        <v>48750</v>
+        <v>36000</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>30</v>
@@ -3614,7 +3614,7 @@
         <v>20261231</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H95" s="7">
         <v>202612</v>
@@ -3631,10 +3631,10 @@
         <v>20261231</v>
       </c>
       <c r="B96" s="7">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C96" s="8">
-        <v>46800</v>
+        <v>29250</v>
       </c>
       <c r="D96" s="7" t="s">
         <v>30</v>
@@ -3646,7 +3646,7 @@
         <v>20261231</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H96" s="7">
         <v>202612</v>
@@ -3663,10 +3663,10 @@
         <v>20261231</v>
       </c>
       <c r="B97" s="7">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C97" s="8">
-        <v>81000</v>
+        <v>31500</v>
       </c>
       <c r="D97" s="7" t="s">
         <v>30</v>
@@ -3678,7 +3678,7 @@
         <v>20261231</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H97" s="7">
         <v>202612</v>
@@ -3695,10 +3695,10 @@
         <v>20261231</v>
       </c>
       <c r="B98" s="7">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C98" s="8">
-        <v>54000</v>
+        <v>38571.428599999999</v>
       </c>
       <c r="D98" s="7" t="s">
         <v>30</v>
@@ -3710,7 +3710,7 @@
         <v>20261231</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H98" s="7">
         <v>202612</v>
@@ -3727,10 +3727,10 @@
         <v>20261231</v>
       </c>
       <c r="B99" s="7">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C99" s="8">
-        <v>106875</v>
+        <v>39000</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>30</v>
@@ -3742,7 +3742,7 @@
         <v>20261231</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H99" s="7">
         <v>202612</v>
@@ -3759,10 +3759,10 @@
         <v>20261231</v>
       </c>
       <c r="B100" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C100" s="8">
-        <v>54000</v>
+        <v>24000</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>30</v>
@@ -3774,7 +3774,7 @@
         <v>20261231</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H100" s="7">
         <v>202612</v>
@@ -3791,10 +3791,10 @@
         <v>20261231</v>
       </c>
       <c r="B101" s="7">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C101" s="8">
-        <v>45000</v>
+        <v>27000</v>
       </c>
       <c r="D101" s="7" t="s">
         <v>30</v>
@@ -3806,7 +3806,7 @@
         <v>20261231</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H101" s="7">
         <v>202612</v>
@@ -3823,10 +3823,10 @@
         <v>20261231</v>
       </c>
       <c r="B102" s="7">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C102" s="8">
-        <v>37800</v>
+        <v>67500</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>30</v>
@@ -3855,10 +3855,10 @@
         <v>20261231</v>
       </c>
       <c r="B103" s="7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C103" s="8">
-        <v>36000</v>
+        <v>59142.857100000001</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>30</v>
@@ -3870,7 +3870,7 @@
         <v>20261231</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H103" s="7">
         <v>202612</v>
@@ -3887,10 +3887,10 @@
         <v>20261231</v>
       </c>
       <c r="B104" s="7">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C104" s="8">
-        <v>29250</v>
+        <v>49500</v>
       </c>
       <c r="D104" s="7" t="s">
         <v>30</v>
@@ -3919,10 +3919,10 @@
         <v>20261231</v>
       </c>
       <c r="B105" s="7">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C105" s="8">
-        <v>31500</v>
+        <v>21600</v>
       </c>
       <c r="D105" s="7" t="s">
         <v>30</v>
@@ -3934,7 +3934,7 @@
         <v>20261231</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H105" s="7">
         <v>202612</v>
@@ -3951,10 +3951,10 @@
         <v>20261231</v>
       </c>
       <c r="B106" s="7">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C106" s="8">
-        <v>38571.428599999999</v>
+        <v>22500</v>
       </c>
       <c r="D106" s="7" t="s">
         <v>30</v>
@@ -3966,7 +3966,7 @@
         <v>20261231</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H106" s="7">
         <v>202612</v>
@@ -3983,10 +3983,10 @@
         <v>20261231</v>
       </c>
       <c r="B107" s="7">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C107" s="8">
-        <v>39000</v>
+        <v>39375</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>30</v>
@@ -3998,7 +3998,7 @@
         <v>20261231</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H107" s="7">
         <v>202612</v>
@@ -4015,10 +4015,10 @@
         <v>20261231</v>
       </c>
       <c r="B108" s="7">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C108" s="8">
-        <v>24000</v>
+        <v>39600</v>
       </c>
       <c r="D108" s="7" t="s">
         <v>30</v>
@@ -4030,7 +4030,7 @@
         <v>20261231</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H108" s="7">
         <v>202612</v>
@@ -4047,10 +4047,10 @@
         <v>20261231</v>
       </c>
       <c r="B109" s="7">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C109" s="8">
-        <v>27000</v>
+        <v>25200</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>30</v>
@@ -4062,7 +4062,7 @@
         <v>20261231</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H109" s="7">
         <v>202612</v>
@@ -4079,10 +4079,10 @@
         <v>20261231</v>
       </c>
       <c r="B110" s="7">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C110" s="8">
-        <v>67500</v>
+        <v>27000</v>
       </c>
       <c r="D110" s="7" t="s">
         <v>30</v>
@@ -4094,7 +4094,7 @@
         <v>20261231</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H110" s="7">
         <v>202612</v>
@@ -4111,10 +4111,10 @@
         <v>20261231</v>
       </c>
       <c r="B111" s="7">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C111" s="8">
-        <v>49500</v>
+        <v>37800</v>
       </c>
       <c r="D111" s="7" t="s">
         <v>30</v>
@@ -4126,7 +4126,7 @@
         <v>20261231</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H111" s="7">
         <v>202612</v>
@@ -4143,10 +4143,10 @@
         <v>20261231</v>
       </c>
       <c r="B112" s="7">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C112" s="8">
-        <v>21600</v>
+        <v>41142.857100000001</v>
       </c>
       <c r="D112" s="7" t="s">
         <v>30</v>
@@ -4175,10 +4175,10 @@
         <v>20261231</v>
       </c>
       <c r="B113" s="7">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C113" s="8">
-        <v>22500</v>
+        <v>41250</v>
       </c>
       <c r="D113" s="7" t="s">
         <v>30</v>
@@ -4207,10 +4207,10 @@
         <v>20261231</v>
       </c>
       <c r="B114" s="7">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C114" s="8">
-        <v>39375</v>
+        <v>52500</v>
       </c>
       <c r="D114" s="7" t="s">
         <v>30</v>
@@ -4222,7 +4222,7 @@
         <v>20261231</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H114" s="7">
         <v>202612</v>
@@ -4239,10 +4239,10 @@
         <v>20261231</v>
       </c>
       <c r="B115" s="7">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C115" s="8">
-        <v>39600</v>
+        <v>30000</v>
       </c>
       <c r="D115" s="7" t="s">
         <v>30</v>
@@ -4271,10 +4271,10 @@
         <v>20261231</v>
       </c>
       <c r="B116" s="7">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C116" s="8">
-        <v>25200</v>
+        <v>51000</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>30</v>
@@ -4286,7 +4286,7 @@
         <v>20261231</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H116" s="7">
         <v>202612</v>
@@ -4303,10 +4303,10 @@
         <v>20261231</v>
       </c>
       <c r="B117" s="7">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C117" s="8">
-        <v>27000</v>
+        <v>48750</v>
       </c>
       <c r="D117" s="7" t="s">
         <v>30</v>
@@ -4318,7 +4318,7 @@
         <v>20261231</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H117" s="7">
         <v>202612</v>
@@ -4335,10 +4335,10 @@
         <v>20261231</v>
       </c>
       <c r="B118" s="7">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C118" s="8">
-        <v>37800</v>
+        <v>46800</v>
       </c>
       <c r="D118" s="7" t="s">
         <v>30</v>
@@ -4350,7 +4350,7 @@
         <v>20261231</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H118" s="7">
         <v>202612</v>
@@ -4367,10 +4367,10 @@
         <v>20261231</v>
       </c>
       <c r="B119" s="7">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C119" s="8">
-        <v>41142.857100000001</v>
+        <v>81000</v>
       </c>
       <c r="D119" s="7" t="s">
         <v>30</v>
@@ -4382,7 +4382,7 @@
         <v>20261231</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H119" s="7">
         <v>202612</v>
@@ -4399,10 +4399,10 @@
         <v>20261231</v>
       </c>
       <c r="B120" s="7">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C120" s="8">
-        <v>41250</v>
+        <v>54000</v>
       </c>
       <c r="D120" s="7" t="s">
         <v>30</v>
@@ -4414,7 +4414,7 @@
         <v>20261231</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H120" s="7">
         <v>202612</v>
@@ -4431,10 +4431,10 @@
         <v>20261231</v>
       </c>
       <c r="B121" s="7">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C121" s="8">
-        <v>30000</v>
+        <v>106875</v>
       </c>
       <c r="D121" s="7" t="s">
         <v>30</v>
@@ -4446,7 +4446,7 @@
         <v>20261231</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H121" s="7">
         <v>202612</v>
@@ -4463,10 +4463,10 @@
         <v>20261231</v>
       </c>
       <c r="B122" s="7">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C122" s="8">
-        <v>51000</v>
+        <v>54000</v>
       </c>
       <c r="D122" s="7" t="s">
         <v>30</v>
@@ -4515,8 +4515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FECB62E0-4531-4514-A111-DB44AEC2692A}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
